--- a/samples/2.webapi-sample-and-test.xlsx
+++ b/samples/2.webapi-sample-and-test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\exlibris\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3C08ED-EB16-4659-AD5C-93459D1BFF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ED58A1-C8F1-4276-9215-5FF973E3AFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34510" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{84C49BD8-384C-4066-B31D-9BE02E5241E8}"/>
   </bookViews>
@@ -23,7 +23,8 @@
     <sheet name="2.7 Bearer" sheetId="9" r:id="rId8"/>
     <sheet name="2.8 URL params" sheetId="11" r:id="rId9"/>
     <sheet name="2.9 HttpClient" sheetId="12" r:id="rId10"/>
-    <sheet name="2.99 misc" sheetId="2" r:id="rId11"/>
+    <sheet name="2.10 xml response" sheetId="13" r:id="rId11"/>
+    <sheet name="2.99 misc" sheetId="2" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_DIR">top!$C$2</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="86">
   <si>
     <t>directory</t>
     <phoneticPr fontId="2"/>
@@ -379,6 +380,34 @@
   </si>
   <si>
     <t>2.9 HttpClient</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xml</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>appid file</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XML</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>to json</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xml response</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2.10 xml response</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -386,7 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +461,14 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -492,7 +529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,12 +578,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -743,269 +803,299 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
       <tp>
-        <v>8</v>
+        <v>2</v>
         <stp/>
-        <stp>731c748d-1216-410a-9d1b-025572a1f057</stp>
-        <tr r="E19" s="5"/>
+        <stp>f6f3b0d3-1c16-4250-82ad-7844baff141f</stp>
+        <tr r="E27" s="11"/>
       </tp>
     </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>3cf261e9-ff28-4ed9-8ac8-622e4f55a1ad</stp>
+        <tr r="E9" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>41</v>
+        <stp/>
+        <stp>cd7d9f31-4be7-49af-a33c-2e7619c93695</stp>
+        <tr r="E16" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>41</v>
+        <stp/>
+        <stp>ffd900c8-4e06-4e01-963a-ab1bb947851a</stp>
+        <tr r="E16" s="12"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
       <tp>
         <v>1</v>
         <stp/>
-        <stp>dc3271e7-fbc6-4c44-8922-723855052c0f</stp>
-        <tr r="E14" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>ec17ba47-b991-4ca4-9ec5-f28e27729ee7</stp>
-        <tr r="E9" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>620929a6-e737-469e-b3e2-9ee079a53fc4</stp>
-        <tr r="F23" s="11"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>389ac9d4-be2e-43b2-b80e-36ddadd45f5d</stp>
-        <tr r="E9" s="3"/>
+        <stp>d301a7a1-d4fc-402f-a81c-fc01bb9a3818</stp>
+        <tr r="E12" s="13"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>7c8fc4cd-f411-43a4-82fd-65677b2bdafd</stp>
+        <stp>a8b2ba5a-9b4c-4c08-aab5-f6603e2cbf24</stp>
+        <tr r="E17" s="8"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>5d85d83e-d702-4724-8856-30e0b2afc763</stp>
+        <tr r="E14" s="5"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>98821205-2a0e-450b-b3bc-66f71821e4d4</stp>
+        <tr r="E15" s="7"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>9d3fc671-bea0-4e67-b72e-e5761159e106</stp>
         <tr r="E29" s="11"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>60cd2919-132d-427a-8a93-6f70a498036c</stp>
+        <tr r="E14" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>41</v>
+        <stp/>
+        <stp>8fabb1c7-abe0-4d86-a9f1-1fa830f0862e</stp>
+        <tr r="E19" s="4"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>b85ef795-a1c2-4997-8967-2dfb246c293a</stp>
+        <tr r="E14" s="12"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>2ad62827-9101-49a2-9c4b-87219c0b6566</stp>
+        <tr r="E12" s="5"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>e0cfae6b-b05a-4b98-880a-2f200dc7998f</stp>
+        <tr r="E12" s="9"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>9f8e0368-5b7a-4f4f-9c0e-70e8f422f63e</stp>
+        <tr r="E15" s="8"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>b8ddb277-a6bc-43f8-92a1-d613c738bf81</stp>
-        <tr r="E9" s="8"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>489f3341-7e7b-4d48-bfd8-6e5f166fea10</stp>
-        <tr r="E14" s="5"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>25873280-6d93-4597-9dd6-b61af0306737</stp>
-        <tr r="E12" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>8</v>
-        <stp/>
-        <stp>f9ecae82-b892-4a58-9f48-53c0ed5fa570</stp>
-        <tr r="E19" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>7ca14217-421e-4f74-801a-d509eb6ccf61</stp>
-        <tr r="E15" s="7"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>8</v>
-        <stp/>
-        <stp>b7328032-b6f4-42ed-9809-c73c2e51e287</stp>
-        <tr r="E14" s="9"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>8</v>
-        <stp/>
-        <stp>eb06280d-3ad9-494e-9777-d7452e31c848</stp>
-        <tr r="E26" s="8"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>364668f5-213d-4e2d-9957-bdd11feef066</stp>
+        <stp>361994d0-e73a-4140-9b3b-501d067fcf21</stp>
         <tr r="E11" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>9a27b893-2d73-4c7b-bf82-2f5098851318</stp>
-        <tr r="E27" s="11"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>ddfc2486-98f2-4a4f-9b73-33c184f6bb1d</stp>
-        <tr r="F9" s="12"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>f86a3998-6bb5-4094-aef5-6d8f9c60c93f</stp>
-        <tr r="E9" s="5"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>ac345f19-52da-4f4b-b050-5698a9030043</stp>
-        <tr r="E17" s="7"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>8</v>
-        <stp/>
-        <stp>4a92cd2e-b8fc-4552-8459-a6cffdade712</stp>
-        <tr r="E16" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>9</v>
-        <stp/>
-        <stp>8d644b27-58e7-428b-8271-90f2ecd730cb</stp>
-        <tr r="E7" s="2"/>
-        <tr r="D10" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>9b46b48b-5741-4483-9505-47826d17a6b1</stp>
-        <tr r="E15" s="8"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>8</v>
-        <stp/>
-        <stp>4b914143-6491-4c12-a258-6c635a3e1b7a</stp>
-        <tr r="E11" s="6"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>88ac4c73-5e76-4d32-9bb7-88a7cf32cc56</stp>
+        <stp>0a21956b-af06-47ce-ae52-85253f81a33e</stp>
         <tr r="E9" s="7"/>
       </tp>
       <tp>
-        <v>8</v>
+        <v>41</v>
         <stp/>
-        <stp>f7d5222b-b6f6-4ae0-acac-8c28dd5ba2a7</stp>
-        <tr r="E22" s="7"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>10075624-771b-43c0-9ed4-869b12761a06</stp>
-        <tr r="E17" s="9"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>96677e8a-02d5-43c0-a92c-144a8af1d50f</stp>
-        <tr r="E25" s="11"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6d257100-2373-4300-8313-0cddfa285ec3</stp>
-        <tr r="E12" s="5"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>ef062f06-f2e4-4a41-87e9-780914baa093</stp>
-        <tr r="E19" s="12"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>8</v>
-        <stp/>
-        <stp>2bcf087a-5fc3-425a-bb05-4aed46b78fbe</stp>
-        <tr r="E16" s="12"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>7a339f1a-4179-43c9-8ae2-4597f2586d2d</stp>
-        <tr r="E17" s="8"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>d2ce8b64-28a0-4059-89ec-13d231627069</stp>
-        <tr r="E9" s="6"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>5466b31b-1f58-4336-aa12-9afa48d6be28</stp>
-        <tr r="E12" s="9"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>29f64b35-6ea1-49e7-90bc-6ebda5fc8b4c</stp>
-        <tr r="E12" s="12"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_60ca443cadbb49c8a467df45a928ddd2">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>542d80bf-95b6-4a3b-acf2-12a8ee93de20</stp>
-        <tr r="E14" s="12"/>
+        <stp>1928bb49-3bb8-4139-ad65-440a5cfbd564</stp>
+        <tr r="D10" s="2"/>
+        <tr r="E7" s="2"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>630487be-757c-4579-8786-1e8f0e414958</stp>
+        <stp>e4839d16-48f9-422c-a6f3-f6ac8ce61177</stp>
+        <tr r="F23" s="11"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>0d4eb5a8-c791-4bca-ac9f-0a008bead2ab</stp>
+        <tr r="E9" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>41</v>
+        <stp/>
+        <stp>59c26763-f7b3-4b86-980a-2bfd53fb6fba</stp>
+        <tr r="E22" s="7"/>
+      </tp>
+      <tp>
+        <v>41</v>
+        <stp/>
+        <stp>99997dca-2dec-4187-bb7e-2b54e1d31ee2</stp>
+        <tr r="E14" s="9"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>41</v>
+        <stp/>
+        <stp>092b5027-f001-4c8f-a125-064cafea9555</stp>
+        <tr r="E26" s="8"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>be675f73-6b8c-4929-9211-fa499ac24c7f</stp>
+        <tr r="E17" s="9"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>ee52ca49-b404-4ea0-bf1c-124ec89d6284</stp>
+        <tr r="F10" s="13"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>b3327225-3222-4a46-ba93-64547b80d4f0</stp>
+        <tr r="E18" s="13"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>601acf66-e205-491d-a322-bc706c39f9a0</stp>
+        <tr r="E25" s="11"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>771259c0-ee9f-4f1b-92ac-b3fc06ebf144</stp>
+        <tr r="D20" s="13"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>3c20093a-d6fb-4050-a479-d2b616ee6ad0</stp>
         <tr r="F9" s="9"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>b546cdbe-d18a-4da8-b421-cf75720407d4</stp>
+        <tr r="E19" s="12"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>2c0ff2cf-a3e0-429e-aa56-d8aa3b84ef7c</stp>
+        <tr r="E9" s="5"/>
+      </tp>
+      <tp>
+        <v>41</v>
+        <stp/>
+        <stp>9f5f2f20-39b4-4a53-bf6a-33370a9db938</stp>
+        <tr r="E19" s="5"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>d266f17f-373b-4740-a361-5f9b27e1d593</stp>
+        <tr r="E12" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>41</v>
+        <stp/>
+        <stp>117d7ddb-29b7-455b-84f1-653c55d32175</stp>
+        <tr r="E11" s="6"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>feeffb78-7f35-4f25-b6dd-80790715e7bc</stp>
+        <tr r="E14" s="13"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>81539365-63f5-478e-8a07-0ba2931e7f02</stp>
+        <tr r="E17" s="7"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>0bedd140-c270-474a-88d4-2f024ad50edd</stp>
+        <tr r="E12" s="12"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>35a96b0d-497a-49d7-bc58-12653500a1d1</stp>
+        <tr r="E9" s="8"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>19025e19-35db-4332-9d86-2e9905b7fac4</stp>
+        <tr r="F9" s="12"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>ffee4e34-c939-49d4-89b4-40f5d5f82fb4</stp>
+        <tr r="E9" s="6"/>
       </tp>
     </main>
   </volType>
@@ -1469,11 +1559,11 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C16" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">INDIRECT("'"&amp;B16&amp;"'!C3")</f>
-        <v>misc</v>
+        <v>xml response</v>
       </c>
       <c r="D16" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDIRECT("'"&amp;B16&amp;"'!C4")</f>
@@ -1481,9 +1571,17 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="2"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">INDIRECT("'"&amp;B17&amp;"'!C3")</f>
+        <v>misc</v>
+      </c>
+      <c r="D17" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">INDIRECT("'"&amp;B17&amp;"'!C4")</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2"/>
@@ -1518,7 +1616,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4 D7:D23">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1601,7 +1699,7 @@
       </c>
       <c r="F9" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
-        <v>System.String:6DE5CBB3-A49B-4467-B617-985D694C2913</v>
+        <v>System.String:77BDB921-1FBE-4648-91FD-0729FA6AADBC</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1618,7 +1716,7 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_xll.Exlibris.WebAPI.Client(E9:F9)</f>
-        <v>System.Net.Http.HttpClient:EE4EB060-4437-4396-8EE2-43B7EB481D1A</v>
+        <v>System.Net.Http.HttpClient:32AE7F03-6531-407D-A884-F5012D890BD4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1630,7 +1728,7 @@
       </c>
       <c r="E14" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">_xll.Exlibris.WebAPI.GET(E6,E12)</f>
-        <v>Newtonsoft.Json.Linq.JObject:084EBBB2-0383-4C1A-BA59-85E5F220C27C</v>
+        <v>Newtonsoft.Json.Linq.JObject:7108E454-310D-45EB-93A2-F840ABBBC410</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1974,6 +2072,509 @@
       <c r="F50">
         <f ca="1"/>
         <v>45018.362881944442</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BCDC55-56C2-4DC7-AD72-3E2BF448712B}">
+  <dimension ref="A2:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" customWidth="1"/>
+    <col min="4" max="4" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="20.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="13"/>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">MID(CELL("filename",B4),FIND("]",CELL("filename",B4))+1,255)</f>
+        <v>2.10 xml response</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="13"/>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="13"/>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13" t="str">
+        <f ca="1">IF(ISERROR(E14)=FALSE,"OK","NG")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="str">
+        <f ca="1">FILE_DIR&amp;"openweathermap-appid.txt"</f>
+        <v>D:\data\git\exlibris\samples\openweathermap-appid.txt</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="11"/>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="11"/>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="str" cm="1">
+        <f t="array" aca="1" ref="F10" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
+        <v>System.String:05557FB9-F7E7-4AC6-90C0-AFC4002476D0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="str" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">_xll.Exlibris.WebAPI.URL(E6,E8:F10,TRUE)</f>
+        <v>System.String:0007D792-C5BD-4CAD-9663-6648A6AFAFCD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="str" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">_xll.Exlibris.WebAPI.GET(E12)</f>
+        <v>System.Xml.XmlDocument:6D2D7AF1-DBE2-4ED2-87B6-F74EA7497FDD</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="str" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">_xll.Exlibris.XML.Stringfy(E14)</f>
+        <v>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;current&gt;&lt;city id="2643743" name="London"&gt;&lt;coord lon="-0.1257" lat="51.5085"&gt;&lt;/coord&gt;&lt;country&gt;GB&lt;/country&gt;&lt;timezone&gt;3600&lt;/timezone&gt;&lt;sun rise="2023-04-10T05:16:22" set="2023-04-10T18:47:02"&gt;&lt;/sun&gt;&lt;/city&gt;&lt;temperature value="286.69" min="284.53" max="289.15" unit="kelvin"&gt;&lt;/temperature&gt;&lt;feels_like value="286.03" unit="kelvin"&gt;&lt;/feels_like&gt;&lt;humidity value="74" unit="%"&gt;&lt;/humidity&gt;&lt;pressure value="1006" unit="hPa"&gt;&lt;/pressure&gt;&lt;wind&gt;&lt;speed value="6.69" unit="m/s" name="Moderate breeze"&gt;&lt;/speed&gt;&lt;gusts&gt;&lt;/gusts&gt;&lt;direction value="270" code="W" name="West"&gt;&lt;/direction&gt;&lt;/wind&gt;&lt;clouds value="100" name="overcast clouds"&gt;&lt;/clouds&gt;&lt;visibility value="10000"&gt;&lt;/visibility&gt;&lt;precipitation mode="no"&gt;&lt;/precipitation&gt;&lt;weather number="804" value="overcast clouds" icon="04d"&gt;&lt;/weather&gt;&lt;lastupdate value="2023-04-10T13:52:47"&gt;&lt;/lastupdate&gt;&lt;/current&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="str" cm="1">
+        <f t="array" aca="1" ref="E18" ca="1">_xll.Exlibris.JSON.JSONObject(E14)</f>
+        <v>Newtonsoft.Json.Linq.JObject:27FB4B73-31F5-430B-8C37-CADFBB9A47C9</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="D20:E54" ca="1">_xll.Exlibris.JSON.Values(E18)</f>
+        <v>$.?xml.@version</v>
+      </c>
+      <c r="E20" s="14" t="str">
+        <f ca="1"/>
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" s="16" t="str">
+        <f ca="1"/>
+        <v>$.?xml.@encoding</v>
+      </c>
+      <c r="E21" t="str">
+        <f ca="1"/>
+        <v>UTF-8</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.city.@id</v>
+      </c>
+      <c r="E22" t="str">
+        <f ca="1"/>
+        <v>2643743</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.city.@name</v>
+      </c>
+      <c r="E23" t="str">
+        <f ca="1"/>
+        <v>London</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.city.coord.@lon</v>
+      </c>
+      <c r="E24" t="str">
+        <f ca="1"/>
+        <v>-0.1257</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.city.coord.@lat</v>
+      </c>
+      <c r="E25" t="str">
+        <f ca="1"/>
+        <v>51.5085</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.city.country</v>
+      </c>
+      <c r="E26" t="str">
+        <f ca="1"/>
+        <v>GB</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.city.timezone</v>
+      </c>
+      <c r="E27" t="str">
+        <f ca="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.city.sun.@rise</v>
+      </c>
+      <c r="E28">
+        <f ca="1"/>
+        <v>45026.219699074078</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.city.sun.@set</v>
+      </c>
+      <c r="E29">
+        <f ca="1"/>
+        <v>45026.78266203704</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.temperature.@value</v>
+      </c>
+      <c r="E30" t="str">
+        <f ca="1"/>
+        <v>286.69</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.temperature.@min</v>
+      </c>
+      <c r="E31" t="str">
+        <f ca="1"/>
+        <v>284.53</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.temperature.@max</v>
+      </c>
+      <c r="E32" t="str">
+        <f ca="1"/>
+        <v>289.15</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.temperature.@unit</v>
+      </c>
+      <c r="E33" t="str">
+        <f ca="1"/>
+        <v>kelvin</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.feels_like.@value</v>
+      </c>
+      <c r="E34" t="str">
+        <f ca="1"/>
+        <v>286.03</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.feels_like.@unit</v>
+      </c>
+      <c r="E35" t="str">
+        <f ca="1"/>
+        <v>kelvin</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.humidity.@value</v>
+      </c>
+      <c r="E36" t="str">
+        <f ca="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.humidity.@unit</v>
+      </c>
+      <c r="E37" t="str">
+        <f ca="1"/>
+        <v>%</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.pressure.@value</v>
+      </c>
+      <c r="E38" t="str">
+        <f ca="1"/>
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.pressure.@unit</v>
+      </c>
+      <c r="E39" t="str">
+        <f ca="1"/>
+        <v>hPa</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.wind.speed.@value</v>
+      </c>
+      <c r="E40" t="str">
+        <f ca="1"/>
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.wind.speed.@unit</v>
+      </c>
+      <c r="E41" t="str">
+        <f ca="1"/>
+        <v>m/s</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.wind.speed.@name</v>
+      </c>
+      <c r="E42" t="str">
+        <f ca="1"/>
+        <v>Moderate breeze</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D43" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.wind.gusts</v>
+      </c>
+      <c r="E43" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D44" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.wind.direction.@value</v>
+      </c>
+      <c r="E44" t="str">
+        <f ca="1"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D45" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.wind.direction.@code</v>
+      </c>
+      <c r="E45" t="str">
+        <f ca="1"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D46" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.wind.direction.@name</v>
+      </c>
+      <c r="E46" t="str">
+        <f ca="1"/>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D47" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.clouds.@value</v>
+      </c>
+      <c r="E47" t="str">
+        <f ca="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D48" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.clouds.@name</v>
+      </c>
+      <c r="E48" t="str">
+        <f ca="1"/>
+        <v>overcast clouds</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.visibility.@value</v>
+      </c>
+      <c r="E49" t="str">
+        <f ca="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D50" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.precipitation.@mode</v>
+      </c>
+      <c r="E50" t="str">
+        <f ca="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.weather.@number</v>
+      </c>
+      <c r="E51" t="str">
+        <f ca="1"/>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D52" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.weather.@value</v>
+      </c>
+      <c r="E52" t="str">
+        <f ca="1"/>
+        <v>overcast clouds</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D53" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.weather.@icon</v>
+      </c>
+      <c r="E53" t="str">
+        <f ca="1"/>
+        <v>04d</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D54" s="16" t="str">
+        <f ca="1"/>
+        <v>$.current.lastupdate.@value</v>
+      </c>
+      <c r="E54">
+        <f ca="1"/>
+        <v>45026.578321759262</v>
       </c>
     </row>
   </sheetData>
@@ -1988,14 +2589,17 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{F85D5262-F490-48A5-BE9A-5C1134F18D42}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCC5ED3-C336-4B8D-AA2B-04FC00C3192F}">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2052,10 +2656,10 @@
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.Exlibris.Utility.Objects.Count(_xll.Exlibris.Utility.TimeAtInterval())</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I7" t="b">
         <f>E7=G7</f>
@@ -2069,147 +2673,179 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="str" cm="1">
-        <f t="array" ref="D10:E27">_xll.Exlibris.Utility.Objects.Handles(_xll.Exlibris.Utility.TimeAtInterval())</f>
-        <v>System.Net.Http.HttpClient:EE4EB060-4437-4396-8EE2-43B7EB481D1A</v>
+        <f t="array" ref="D10:E31">_xll.Exlibris.Utility.Objects.Handles(_xll.Exlibris.Utility.TimeAtInterval())</f>
+        <v>Newtonsoft.Json.Linq.JObject:7108E454-310D-45EB-93A2-F840ABBBC410</v>
       </c>
       <c r="E10" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E12:E12</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E14:E14</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:084EBBB2-0383-4C1A-BA59-85E5F220C27C</v>
+        <v>Newtonsoft.Json.Linq.JObject:614B4BBB-AB95-4E8E-BE4E-59BD54E157D4</v>
       </c>
       <c r="E11" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E14:E14</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.6 POST with Header!E9:E9</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" t="str">
-        <v>System.String:256005F2-156D-4CEB-9A39-C3A6E2B9C450</v>
+        <v>Newtonsoft.Json.Linq.JObject:A6CBBB6D-D0B4-4611-8151-FFB8E96F0B68</v>
       </c>
       <c r="E12" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!E25:E25</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.5 PATCH!E9:E9</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:F98367F8-BDB1-4CE2-9FED-44F7EAC61AFD</v>
+        <v>Newtonsoft.Json.Linq.JObject:FCFFAB44-A3B4-48B3-84F4-107335810E4B</v>
       </c>
       <c r="E13" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.2 POST!E9:E9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.6 POST with Header!E15:E15</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:C1B07BF5-9C55-4668-B206-C16C1A03BB25</v>
+        <v>Newtonsoft.Json.Linq.JObject:E88A387E-CD69-479D-B595-403FDA21997C</v>
       </c>
       <c r="E14" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.3 PUT!E12:E12</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.7 Bearer!E12:E12</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:C5A93488-8709-4A1C-8C85-176412ECD50E</v>
+        <v>Newtonsoft.Json.Linq.JObject:27FB4B73-31F5-430B-8C37-CADFBB9A47C9</v>
       </c>
       <c r="E15" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.5 PATCH!E15:E15</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E18:E18</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:31B4D1EC-4CC6-4A41-85E1-2528115A684A</v>
+        <v>Newtonsoft.Json.Linq.JObject:F099013D-8068-404B-8841-9257805EBDE3</v>
       </c>
       <c r="E16" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.6 POST with Header!E9:E9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.5 PATCH!E15:E15</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" t="str">
-        <v>System.String:27F1B9D0-5F52-4A51-B620-247BE652D262</v>
+        <v>System.String:77BDB921-1FBE-4648-91FD-0729FA6AADBC</v>
       </c>
       <c r="E17" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.7 Bearer!F9:F9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!F9:F9</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:28258D7B-15F9-4854-8C97-9AA83D224515</v>
+        <v>System.String:A84D27E3-917F-4A70-B40E-EC28313214C1</v>
       </c>
       <c r="E18" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.4 DELETE!E9:E9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.7 Bearer!F9:F9</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="str">
-        <v>System.String:6DE5CBB3-A49B-4467-B617-985D694C2913</v>
+        <v>Newtonsoft.Json.Linq.JObject:748B7BCE-4320-4E6A-BCE6-770D24F71D65</v>
       </c>
       <c r="E19" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!F9:F9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.2 POST!E9:E9</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:4650845F-DDC3-4522-A305-7FF5B9A9CEFA</v>
+        <v>Newtonsoft.Json.Linq.JObject:7EC8B7F7-4F21-407B-AA1D-6165F5DE9BE6</v>
       </c>
       <c r="E20" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.2 POST!E12:E12</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.3 PUT!E12:E12</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:77FD4447-03E2-4B2F-B032-BFB5E3F61B21</v>
+        <v>Newtonsoft.Json.Linq.JObject:B5FC2B97-147F-42A3-83F9-F29BA3B697D3</v>
       </c>
       <c r="E21" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.3 PUT!E9:E9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.1 GET!E9:E9</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:02E1C499-1282-4479-9A6B-280C76DAFB16</v>
+        <v>System.String:05557FB9-F7E7-4AC6-90C0-AFC4002476D0</v>
       </c>
       <c r="E22" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.6 POST with Header!E15:E15</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!F10:F10</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:C873E9E2-1C5E-444B-92F1-31F185D03A75</v>
+        <v>System.Net.Http.HttpClient:32AE7F03-6531-407D-A884-F5012D890BD4</v>
       </c>
       <c r="E23" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.5 PATCH!E9:E9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E12:E12</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="str">
-        <v>System.String:D1FCFA3C-88F5-44C5-B7B0-C4FF53BC7757</v>
+        <v>Newtonsoft.Json.Linq.JObject:538ACAA4-2C71-4FA3-965A-DF6745019126</v>
       </c>
       <c r="E24" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!F23:F23</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!E27:E27</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:FAEC4BA9-08A9-49BD-B139-24B13119BB95</v>
+        <v>System.String:0007D792-C5BD-4CAD-9663-6648A6AFAFCD</v>
       </c>
       <c r="E25" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!E27:E27</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E14:E14</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:DF7A77C1-60A6-43E6-817A-049A42C227D9</v>
+        <v>Newtonsoft.Json.Linq.JObject:7C4CFCED-F1E7-45CC-B87E-AED5688355EA</v>
       </c>
       <c r="E26" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.7 Bearer!E12:E12</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.3 PUT!E9:E9</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:6ADB3235-417C-415D-8889-E44409FCD551</v>
+        <v>System.String:3E99E143-4E22-4BBC-8BB6-4575B1DB6874</v>
       </c>
       <c r="E27" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.1 GET!E9:E9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!E25:E25</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" t="str">
+        <v>System.String:77F48DD1-71EC-4CF8-B1B8-95DEC0C43742</v>
+      </c>
+      <c r="E28" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!F23:F23</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" t="str">
+        <v>Newtonsoft.Json.Linq.JObject:7727FC0A-73F3-47F7-9801-3B295F73ABCE</v>
+      </c>
+      <c r="E29" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.2 POST!E12:E12</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" t="str">
+        <v>Newtonsoft.Json.Linq.JObject:A6817375-4F14-4AA4-9998-55D144D72836</v>
+      </c>
+      <c r="E30" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.4 DELETE!E9:E9</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" t="str">
+        <v>System.Xml.XmlDocument:6D2D7AF1-DBE2-4ED2-87B6-F74EA7497FDD</v>
+      </c>
+      <c r="E31" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E15:E15</v>
       </c>
     </row>
   </sheetData>
@@ -2294,7 +2930,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.WebAPI.GET(E6)</f>
-        <v>Newtonsoft.Json.Linq.JObject:6ADB3235-417C-415D-8889-E44409FCD551</v>
+        <v>Newtonsoft.Json.Linq.JObject:B5FC2B97-147F-42A3-83F9-F29BA3B697D3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2353,7 +2989,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B4 C4">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2430,7 +3066,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.JSON.JSONObject(E7)</f>
-        <v>Newtonsoft.Json.Linq.JObject:F98367F8-BDB1-4CE2-9FED-44F7EAC61AFD</v>
+        <v>Newtonsoft.Json.Linq.JObject:748B7BCE-4320-4E6A-BCE6-770D24F71D65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2447,7 +3083,7 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" ref="E12">_xll.Exlibris.WebAPI.POST(E6,E9)</f>
-        <v>Newtonsoft.Json.Linq.JObject:4650845F-DDC3-4522-A305-7FF5B9A9CEFA</v>
+        <v>Newtonsoft.Json.Linq.JObject:7727FC0A-73F3-47F7-9801-3B295F73ABCE</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2509,12 +3145,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2591,7 +3227,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.JSON.JSONObject(E7)</f>
-        <v>Newtonsoft.Json.Linq.JObject:77FD4447-03E2-4B2F-B032-BFB5E3F61B21</v>
+        <v>Newtonsoft.Json.Linq.JObject:7C4CFCED-F1E7-45CC-B87E-AED5688355EA</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2608,7 +3244,7 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" ref="E12">_xll.Exlibris.WebAPI.PUT(E6,E9)</f>
-        <v>Newtonsoft.Json.Linq.JObject:C1B07BF5-9C55-4668-B206-C16C1A03BB25</v>
+        <v>Newtonsoft.Json.Linq.JObject:7EC8B7F7-4F21-407B-AA1D-6165F5DE9BE6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2670,7 +3306,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B4 C4">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2747,7 +3383,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.WebAPI.DELETE(E6)</f>
-        <v>Newtonsoft.Json.Linq.JObject:28258D7B-15F9-4854-8C97-9AA83D224515</v>
+        <v>Newtonsoft.Json.Linq.JObject:A6817375-4F14-4AA4-9998-55D144D72836</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2770,7 +3406,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B4 C4">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2848,7 +3484,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.JSON.JSONObject(E7)</f>
-        <v>Newtonsoft.Json.Linq.JObject:C873E9E2-1C5E-444B-92F1-31F185D03A75</v>
+        <v>Newtonsoft.Json.Linq.JObject:A6CBBB6D-D0B4-4611-8151-FFB8E96F0B68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2884,7 +3520,7 @@
       </c>
       <c r="E15" t="str" cm="1">
         <f t="array" ref="E15">_xll.Exlibris.WebAPI.PATCH(E6,E9)</f>
-        <v>Newtonsoft.Json.Linq.JObject:C5A93488-8709-4A1C-8C85-176412ECD50E</v>
+        <v>Newtonsoft.Json.Linq.JObject:F099013D-8068-404B-8841-9257805EBDE3</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
@@ -2949,12 +3585,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3032,7 +3668,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.JSON.JSONObject(E7)</f>
-        <v>Newtonsoft.Json.Linq.JObject:31B4D1EC-4CC6-4A41-85E1-2528115A684A</v>
+        <v>Newtonsoft.Json.Linq.JObject:614B4BBB-AB95-4E8E-BE4E-59BD54E157D4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3068,7 +3704,7 @@
       </c>
       <c r="E15" t="str" cm="1">
         <f t="array" ref="E15">_xll.Exlibris.WebAPI.POST(E6,E9,,E11:F12)</f>
-        <v>Newtonsoft.Json.Linq.JObject:02E1C499-1282-4479-9A6B-280C76DAFB16</v>
+        <v>Newtonsoft.Json.Linq.JObject:FCFFAB44-A3B4-48B3-84F4-107335810E4B</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
@@ -3080,7 +3716,7 @@
         <v>$.bookingid</v>
       </c>
       <c r="F17">
-        <v>3090</v>
+        <v>11777</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.55000000000000004">
@@ -3162,12 +3798,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3253,7 +3889,7 @@
       </c>
       <c r="F9" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
-        <v>System.String:27F1B9D0-5F52-4A51-B620-247BE652D262</v>
+        <v>System.String:A84D27E3-917F-4A70-B40E-EC28313214C1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3270,7 +3906,7 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_xll.Exlibris.WebAPI.GET(E6,E9:F9)</f>
-        <v>Newtonsoft.Json.Linq.JObject:DF7A77C1-60A6-43E6-817A-049A42C227D9</v>
+        <v>Newtonsoft.Json.Linq.JObject:E88A387E-CD69-479D-B595-403FDA21997C</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3619,12 +4255,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3788,7 +4424,7 @@
       </c>
       <c r="F23" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">_xll.Exlibris.Utility.LoadText(E19)</f>
-        <v>System.String:D1FCFA3C-88F5-44C5-B7B0-C4FF53BC7757</v>
+        <v>System.String:77F48DD1-71EC-4CF8-B1B8-95DEC0C43742</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.55000000000000004">
@@ -3797,7 +4433,7 @@
       </c>
       <c r="E25" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">_xll.Exlibris.WebAPI.URL(E21,E22:F23,TRUE)</f>
-        <v>System.String:256005F2-156D-4CEB-9A39-C3A6E2B9C450</v>
+        <v>System.String:3E99E143-4E22-4BBC-8BB6-4575B1DB6874</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.55000000000000004">
@@ -3806,7 +4442,7 @@
       </c>
       <c r="E27" t="str" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">_xll.Exlibris.WebAPI.GET(E25)</f>
-        <v>Newtonsoft.Json.Linq.JObject:FAEC4BA9-08A9-49BD-B139-24B13119BB95</v>
+        <v>Newtonsoft.Json.Linq.JObject:538ACAA4-2C71-4FA3-965A-DF6745019126</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.55000000000000004">
@@ -3889,7 +4525,7 @@
       </c>
       <c r="F36">
         <f ca="1"/>
-        <v>286.45999999999998</v>
+        <v>286.69</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -3899,7 +4535,7 @@
       </c>
       <c r="F37">
         <f ca="1"/>
-        <v>285.14999999999998</v>
+        <v>286.02999999999997</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -3909,7 +4545,7 @@
       </c>
       <c r="F38">
         <f ca="1"/>
-        <v>284.98</v>
+        <v>284.52999999999997</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -3919,7 +4555,7 @@
       </c>
       <c r="F39">
         <f ca="1"/>
-        <v>287.60000000000002</v>
+        <v>289.14999999999998</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -3929,7 +4565,7 @@
       </c>
       <c r="F40">
         <f ca="1"/>
-        <v>1019</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -3939,7 +4575,7 @@
       </c>
       <c r="F41">
         <f ca="1"/>
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -3959,7 +4595,7 @@
       </c>
       <c r="F43">
         <f ca="1"/>
-        <v>2.57</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -3969,7 +4605,7 @@
       </c>
       <c r="F44">
         <f ca="1"/>
-        <v>210</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -3989,7 +4625,7 @@
       </c>
       <c r="F46">
         <f ca="1"/>
-        <v>1680700472</v>
+        <v>1681134767</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4029,7 +4665,7 @@
       </c>
       <c r="F50">
         <f ca="1"/>
-        <v>1680672453</v>
+        <v>1681103782</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4039,7 +4675,7 @@
       </c>
       <c r="F51">
         <f ca="1"/>
-        <v>1680719922</v>
+        <v>1681152422</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4085,12 +4721,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/samples/2.webapi-sample-and-test.xlsx
+++ b/samples/2.webapi-sample-and-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\exlibris\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ED58A1-C8F1-4276-9215-5FF973E3AFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AC39DB-C41F-462C-8738-7B6C900CFE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34510" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{84C49BD8-384C-4066-B31D-9BE02E5241E8}"/>
   </bookViews>
@@ -24,7 +24,8 @@
     <sheet name="2.8 URL params" sheetId="11" r:id="rId9"/>
     <sheet name="2.9 HttpClient" sheetId="12" r:id="rId10"/>
     <sheet name="2.10 xml response" sheetId="13" r:id="rId11"/>
-    <sheet name="2.99 misc" sheetId="2" r:id="rId12"/>
+    <sheet name="2.11 POST - form data" sheetId="14" r:id="rId12"/>
+    <sheet name="2.99 misc" sheetId="2" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_DIR">top!$C$2</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="104">
   <si>
     <t>directory</t>
     <phoneticPr fontId="2"/>
@@ -408,6 +409,72 @@
   </si>
   <si>
     <t>2.10 xml response</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://api-free.deepl.com/v2/translate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>authentication</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$.headers.authentication.schema</t>
+  </si>
+  <si>
+    <t>DeepL-Auth-Key</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$.headers.authentication.certification</t>
+  </si>
+  <si>
+    <t>form data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hello world!</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>target_lang</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>de</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>=Exlibris.WebAPI.POST(E6,E12:F13,,E9:F10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$.translations[0].detected_source_language</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>$.translations[0].text</t>
+  </si>
+  <si>
+    <t>Hallo Welt!</t>
+  </si>
+  <si>
+    <t>comparison</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>POST - form data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2.11 POST - form data</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -586,7 +653,27 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -803,299 +890,311 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
       <tp>
-        <v>2</v>
+        <v>37</v>
         <stp/>
-        <stp>f6f3b0d3-1c16-4250-82ad-7844baff141f</stp>
-        <tr r="E27" s="11"/>
+        <stp>d2e81a13-9c24-40be-992d-2f0ad0acf669</stp>
+        <tr r="E26" s="8"/>
       </tp>
     </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>3cf261e9-ff28-4ed9-8ac8-622e4f55a1ad</stp>
-        <tr r="E9" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>41</v>
-        <stp/>
-        <stp>cd7d9f31-4be7-49af-a33c-2e7619c93695</stp>
-        <tr r="E16" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>41</v>
-        <stp/>
-        <stp>ffd900c8-4e06-4e01-963a-ab1bb947851a</stp>
-        <tr r="E16" s="12"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
       <tp>
         <v>1</v>
         <stp/>
-        <stp>d301a7a1-d4fc-402f-a81c-fc01bb9a3818</stp>
+        <stp>35bcf3f9-b788-4bb0-80c5-4fe116ad9925</stp>
         <tr r="E12" s="13"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>a8b2ba5a-9b4c-4c08-aab5-f6603e2cbf24</stp>
-        <tr r="E17" s="8"/>
+        <stp>bbff73ba-20a1-4226-a1be-3910a2a8eb65</stp>
+        <tr r="E9" s="5"/>
+      </tp>
+      <tp>
+        <v>22</v>
+        <stp/>
+        <stp>4e160e74-8122-4b89-b99f-3c7d3205a7a4</stp>
+        <tr r="E16" s="12"/>
       </tp>
     </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
       <tp>
         <v>1</v>
         <stp/>
-        <stp>5d85d83e-d702-4724-8856-30e0b2afc763</stp>
-        <tr r="E14" s="5"/>
+        <stp>2f7a3654-237a-4c0f-999e-3e4c06871665</stp>
+        <tr r="E11" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>2197fb92-967e-4ab6-9e7a-5062e44f97eb</stp>
+        <tr r="F23" s="11"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>98821205-2a0e-450b-b3bc-66f71821e4d4</stp>
-        <tr r="E15" s="7"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>9d3fc671-bea0-4e67-b72e-e5761159e106</stp>
-        <tr r="E29" s="11"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>60cd2919-132d-427a-8a93-6f70a498036c</stp>
-        <tr r="E14" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>41</v>
-        <stp/>
-        <stp>8fabb1c7-abe0-4d86-a9f1-1fa830f0862e</stp>
-        <tr r="E19" s="4"/>
+        <stp>984fed5c-f442-4ea8-a3d4-5513c9cb73f7</stp>
+        <tr r="E12" s="4"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>b85ef795-a1c2-4997-8967-2dfb246c293a</stp>
-        <tr r="E14" s="12"/>
+        <stp>fe8f7e41-c00b-4b84-8f63-87cfa8ce9412</stp>
+        <tr r="E9" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>2ad62827-9101-49a2-9c4b-87219c0b6566</stp>
+        <stp>fa6b6253-53a0-4a9c-be62-1924a3eaab49</stp>
         <tr r="E12" s="5"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>e0cfae6b-b05a-4b98-880a-2f200dc7998f</stp>
-        <tr r="E12" s="9"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>9f8e0368-5b7a-4f4f-9c0e-70e8f422f63e</stp>
-        <tr r="E15" s="8"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>361994d0-e73a-4140-9b3b-501d067fcf21</stp>
-        <tr r="E11" s="3"/>
+        <stp>ef53668b-4bb0-4909-96b1-7c93e0cb27c8</stp>
+        <tr r="D19" s="14"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>0a21956b-af06-47ce-ae52-85253f81a33e</stp>
+        <stp>f5b06ecd-7814-4ce0-9b2b-99adfcba2d65</stp>
+        <tr r="E12" s="12"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>c8ade10e-70bd-46b4-b8e8-3379d94d620a</stp>
+        <tr r="E17" s="9"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>1cf81ac4-2fde-4875-b7fb-734d9da48ce2</stp>
         <tr r="E9" s="7"/>
       </tp>
       <tp>
-        <v>41</v>
+        <v>1</v>
         <stp/>
-        <stp>1928bb49-3bb8-4139-ad65-440a5cfbd564</stp>
+        <stp>b9ff9395-f713-476e-8fff-37611667b991</stp>
+        <tr r="E17" s="8"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>b79878cf-611d-44e9-8910-07fc6a3ab06e</stp>
+        <tr r="E9" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>ce4d9c3c-2487-4e41-8564-7f98dd80ebee</stp>
+        <tr r="F10" s="14"/>
+      </tp>
+      <tp>
+        <v>37</v>
+        <stp/>
+        <stp>68138cd8-645f-4784-a21f-48a0924c9102</stp>
+        <tr r="E19" s="4"/>
+      </tp>
+      <tp>
+        <v>22</v>
+        <stp/>
+        <stp>71c1542e-520a-4a44-b766-cd34f4636141</stp>
+        <tr r="E14" s="9"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>37</v>
+        <stp/>
+        <stp>71fb1843-ffe1-46b9-8467-d26dcddc1edf</stp>
+        <tr r="E19" s="5"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>54a41870-0bca-4017-978b-ee34185e5c5a</stp>
+        <tr r="E14" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>566826ca-3e01-4213-8764-13b8825649ea</stp>
+        <tr r="E14" s="12"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>579ed8a0-e92f-4584-959b-fd66821109ad</stp>
+        <tr r="F10" s="13"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>82f80616-2a7b-449b-9651-cd1465312861</stp>
+        <tr r="E19" s="12"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>147e3cee-770f-4930-8116-b5a86e0d38e1</stp>
+        <tr r="F9" s="9"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>bb848701-7222-43c8-b854-03fcae76a03c</stp>
+        <tr r="E14" s="13"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>251d3aaf-2334-4f58-8648-6e04ccaa5e94</stp>
+        <tr r="E14" s="5"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>37</v>
+        <stp/>
+        <stp>74283da2-529f-409e-abf8-55b4e9175a8c</stp>
+        <tr r="E16" s="3"/>
+      </tp>
+      <tp>
+        <v>37</v>
+        <stp/>
+        <stp>84403d79-c4b6-4b0f-8e4e-84623dad15de</stp>
+        <tr r="E22" s="7"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>f26963bb-5344-405f-bcef-77a86b26df5e</stp>
+        <tr r="D20" s="13"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>37</v>
+        <stp/>
+        <stp>a73e5fc1-de75-4a23-acfc-354c701b2ad7</stp>
+        <tr r="E11" s="6"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>37</v>
+        <stp/>
+        <stp>fc74e4ca-ab03-4c56-ae59-e2bd22e5702d</stp>
         <tr r="D10" s="2"/>
         <tr r="E7" s="2"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>e4839d16-48f9-422c-a6f3-f6ac8ce61177</stp>
-        <tr r="F23" s="11"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>0d4eb5a8-c791-4bca-ac9f-0a008bead2ab</stp>
-        <tr r="E9" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>41</v>
-        <stp/>
-        <stp>59c26763-f7b3-4b86-980a-2bfd53fb6fba</stp>
-        <tr r="E22" s="7"/>
+        <stp>3a811f85-a4c4-4896-875c-5f31548212e6</stp>
+        <tr r="E9" s="8"/>
       </tp>
       <tp>
-        <v>41</v>
+        <v>2</v>
         <stp/>
-        <stp>99997dca-2dec-4187-bb7e-2b54e1d31ee2</stp>
-        <tr r="E14" s="9"/>
+        <stp>89665397-8399-40d4-8249-9f9a3ab2b323</stp>
+        <tr r="E12" s="9"/>
       </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
       <tp>
-        <v>41</v>
+        <v>2</v>
         <stp/>
-        <stp>092b5027-f001-4c8f-a125-064cafea9555</stp>
-        <tr r="E26" s="8"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>be675f73-6b8c-4929-9211-fa499ac24c7f</stp>
-        <tr r="E17" s="9"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>ee52ca49-b404-4ea0-bf1c-124ec89d6284</stp>
-        <tr r="F10" s="13"/>
+        <stp>d9f47733-ddf9-4d31-a63f-c40a6cd85902</stp>
+        <tr r="E15" s="7"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>b3327225-3222-4a46-ba93-64547b80d4f0</stp>
-        <tr r="E18" s="13"/>
+        <stp>f4bbbc16-e10a-48af-9445-08378f699988</stp>
+        <tr r="E29" s="11"/>
       </tp>
     </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
       <tp>
         <v>1</v>
         <stp/>
-        <stp>601acf66-e205-491d-a322-bc706c39f9a0</stp>
+        <stp>ccc7e737-1f76-4f07-90a7-bf562ee367fa</stp>
         <tr r="E25" s="11"/>
       </tp>
     </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
       <tp>
-        <v>1</v>
+        <v>2</v>
         <stp/>
-        <stp>771259c0-ee9f-4f1b-92ac-b3fc06ebf144</stp>
-        <tr r="D20" s="13"/>
+        <stp>4e92e06e-05a6-42f7-adc9-aa3762b40bbc</stp>
+        <tr r="E9" s="6"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>3c20093a-d6fb-4050-a479-d2b616ee6ad0</stp>
-        <tr r="F9" s="9"/>
+        <stp>43c6861c-613a-4b8c-be56-4c0bfbb95d95</stp>
+        <tr r="E17" s="7"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c6441ca1-5f21-490c-b190-e87d0fa52e5d</stp>
+        <tr r="E15" s="8"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>f0a640ca-0660-4c97-bb34-90b4ad64faf5</stp>
+        <tr r="E16" s="14"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>dba7597f-0919-4927-9275-38a90fd744d5</stp>
+        <tr r="E27" s="11"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>b546cdbe-d18a-4da8-b421-cf75720407d4</stp>
-        <tr r="E19" s="12"/>
+        <stp>6c8f55b1-90f2-446d-97f9-8ca8d82db4fd</stp>
+        <tr r="E18" s="13"/>
       </tp>
+    </main>
+    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
       <tp>
         <v>1</v>
         <stp/>
-        <stp>2c0ff2cf-a3e0-429e-aa56-d8aa3b84ef7c</stp>
-        <tr r="E9" s="5"/>
-      </tp>
-      <tp>
-        <v>41</v>
-        <stp/>
-        <stp>9f5f2f20-39b4-4a53-bf6a-33370a9db938</stp>
-        <tr r="E19" s="5"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>d266f17f-373b-4740-a361-5f9b27e1d593</stp>
-        <tr r="E12" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>41</v>
-        <stp/>
-        <stp>117d7ddb-29b7-455b-84f1-653c55d32175</stp>
-        <tr r="E11" s="6"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>feeffb78-7f35-4f25-b6dd-80790715e7bc</stp>
-        <tr r="E14" s="13"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>81539365-63f5-478e-8a07-0ba2931e7f02</stp>
-        <tr r="E17" s="7"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>0bedd140-c270-474a-88d4-2f024ad50edd</stp>
-        <tr r="E12" s="12"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>35a96b0d-497a-49d7-bc58-12653500a1d1</stp>
-        <tr r="E9" s="8"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>19025e19-35db-4332-9d86-2e9905b7fac4</stp>
+        <stp>7d86ec65-c78e-4190-9310-abe3d2e09758</stp>
         <tr r="F9" s="12"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7cdd146ce1ea4aa8a18c98c029ac630b">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ffee4e34-c939-49d4-89b4-40f5d5f82fb4</stp>
-        <tr r="E9" s="6"/>
       </tp>
     </main>
   </volType>
@@ -1572,11 +1671,11 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C17" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDIRECT("'"&amp;B17&amp;"'!C3")</f>
-        <v>misc</v>
+        <v>POST - form data</v>
       </c>
       <c r="D17" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDIRECT("'"&amp;B17&amp;"'!C4")</f>
@@ -1584,9 +1683,17 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="C18" ca="1">INDIRECT("'"&amp;B18&amp;"'!C3")</f>
+        <v>misc</v>
+      </c>
+      <c r="D18" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">INDIRECT("'"&amp;B18&amp;"'!C4")</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="2"/>
@@ -1616,7 +1723,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4 D7:D23">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1699,7 +1806,7 @@
       </c>
       <c r="F9" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
-        <v>System.String:77BDB921-1FBE-4648-91FD-0729FA6AADBC</v>
+        <v>System.String:0B437516-8831-4260-A023-802639C0CC65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1716,7 +1823,7 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_xll.Exlibris.WebAPI.Client(E9:F9)</f>
-        <v>System.Net.Http.HttpClient:32AE7F03-6531-407D-A884-F5012D890BD4</v>
+        <v>System.Net.Http.HttpClient:05784FB1-9FB4-4035-867E-F3E759A9AAB1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1728,7 +1835,7 @@
       </c>
       <c r="E14" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">_xll.Exlibris.WebAPI.GET(E6,E12)</f>
-        <v>Newtonsoft.Json.Linq.JObject:7108E454-310D-45EB-93A2-F840ABBBC410</v>
+        <v>Newtonsoft.Json.Linq.JObject:ECAD67FA-0B91-4797-AD78-28351726930C</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2077,12 +2184,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2180,7 +2287,7 @@
       </c>
       <c r="F10" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
-        <v>System.String:05557FB9-F7E7-4AC6-90C0-AFC4002476D0</v>
+        <v>System.String:2EAC5BA7-2776-456F-8778-66C6D87C579C</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2192,7 +2299,7 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_xll.Exlibris.WebAPI.URL(E6,E8:F10,TRUE)</f>
-        <v>System.String:0007D792-C5BD-4CAD-9663-6648A6AFAFCD</v>
+        <v>System.String:0DA5BCB4-82FF-4B2D-B39C-8E37E2423919</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2201,7 +2308,7 @@
       </c>
       <c r="E14" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">_xll.Exlibris.WebAPI.GET(E12)</f>
-        <v>System.Xml.XmlDocument:6D2D7AF1-DBE2-4ED2-87B6-F74EA7497FDD</v>
+        <v>System.Xml.XmlDocument:F48CA097-D9F6-4AE3-93C0-AFBE76F81577</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2210,7 +2317,7 @@
       </c>
       <c r="E16" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">_xll.Exlibris.XML.Stringfy(E14)</f>
-        <v>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;current&gt;&lt;city id="2643743" name="London"&gt;&lt;coord lon="-0.1257" lat="51.5085"&gt;&lt;/coord&gt;&lt;country&gt;GB&lt;/country&gt;&lt;timezone&gt;3600&lt;/timezone&gt;&lt;sun rise="2023-04-10T05:16:22" set="2023-04-10T18:47:02"&gt;&lt;/sun&gt;&lt;/city&gt;&lt;temperature value="286.69" min="284.53" max="289.15" unit="kelvin"&gt;&lt;/temperature&gt;&lt;feels_like value="286.03" unit="kelvin"&gt;&lt;/feels_like&gt;&lt;humidity value="74" unit="%"&gt;&lt;/humidity&gt;&lt;pressure value="1006" unit="hPa"&gt;&lt;/pressure&gt;&lt;wind&gt;&lt;speed value="6.69" unit="m/s" name="Moderate breeze"&gt;&lt;/speed&gt;&lt;gusts&gt;&lt;/gusts&gt;&lt;direction value="270" code="W" name="West"&gt;&lt;/direction&gt;&lt;/wind&gt;&lt;clouds value="100" name="overcast clouds"&gt;&lt;/clouds&gt;&lt;visibility value="10000"&gt;&lt;/visibility&gt;&lt;precipitation mode="no"&gt;&lt;/precipitation&gt;&lt;weather number="804" value="overcast clouds" icon="04d"&gt;&lt;/weather&gt;&lt;lastupdate value="2023-04-10T13:52:47"&gt;&lt;/lastupdate&gt;&lt;/current&gt;</v>
+        <v>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;current&gt;&lt;city id="2643743" name="London"&gt;&lt;coord lon="-0.1257" lat="51.5085"&gt;&lt;/coord&gt;&lt;country&gt;GB&lt;/country&gt;&lt;timezone&gt;3600&lt;/timezone&gt;&lt;sun rise="2023-04-11T05:14:09" set="2023-04-11T18:48:42"&gt;&lt;/sun&gt;&lt;/city&gt;&lt;temperature value="281.53" min="280.4" max="282.31" unit="kelvin"&gt;&lt;/temperature&gt;&lt;feels_like value="278.46" unit="kelvin"&gt;&lt;/feels_like&gt;&lt;humidity value="78" unit="%"&gt;&lt;/humidity&gt;&lt;pressure value="1010" unit="hPa"&gt;&lt;/pressure&gt;&lt;wind&gt;&lt;speed value="5.66" unit="m/s" name="Moderate breeze"&gt;&lt;/speed&gt;&lt;gusts&gt;&lt;/gusts&gt;&lt;direction value="250" code="WSW" name="West-southwest"&gt;&lt;/direction&gt;&lt;/wind&gt;&lt;clouds value="20" name="few clouds"&gt;&lt;/clouds&gt;&lt;visibility value="10000"&gt;&lt;/visibility&gt;&lt;precipitation mode="no"&gt;&lt;/precipitation&gt;&lt;weather number="801" value="few clouds" icon="02n"&gt;&lt;/weather&gt;&lt;lastupdate value="2023-04-10T23:25:25"&gt;&lt;/lastupdate&gt;&lt;/current&gt;</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2219,7 +2326,7 @@
       </c>
       <c r="E18" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">_xll.Exlibris.JSON.JSONObject(E14)</f>
-        <v>Newtonsoft.Json.Linq.JObject:27FB4B73-31F5-430B-8C37-CADFBB9A47C9</v>
+        <v>Newtonsoft.Json.Linq.JObject:BFEAE654-9F48-425C-A884-B0028C8410AA</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2314,7 +2421,7 @@
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>45026.219699074078</v>
+        <v>45027.218159722222</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2324,7 +2431,7 @@
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>45026.78266203704</v>
+        <v>45027.783819444441</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2334,7 +2441,7 @@
       </c>
       <c r="E30" t="str">
         <f ca="1"/>
-        <v>286.69</v>
+        <v>281.53</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2344,7 +2451,7 @@
       </c>
       <c r="E31" t="str">
         <f ca="1"/>
-        <v>284.53</v>
+        <v>280.4</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2354,7 +2461,7 @@
       </c>
       <c r="E32" t="str">
         <f ca="1"/>
-        <v>289.15</v>
+        <v>282.31</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2374,7 +2481,7 @@
       </c>
       <c r="E34" t="str">
         <f ca="1"/>
-        <v>286.03</v>
+        <v>278.46</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2394,7 +2501,7 @@
       </c>
       <c r="E36" t="str">
         <f ca="1"/>
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2414,7 +2521,7 @@
       </c>
       <c r="E38" t="str">
         <f ca="1"/>
-        <v>1006</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2434,7 +2541,7 @@
       </c>
       <c r="E40" t="str">
         <f ca="1"/>
-        <v>6.69</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2474,7 +2581,7 @@
       </c>
       <c r="E44" t="str">
         <f ca="1"/>
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2484,7 +2591,7 @@
       </c>
       <c r="E45" t="str">
         <f ca="1"/>
-        <v>W</v>
+        <v>WSW</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2494,7 +2601,7 @@
       </c>
       <c r="E46" t="str">
         <f ca="1"/>
-        <v>West</v>
+        <v>West-southwest</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2504,7 +2611,7 @@
       </c>
       <c r="E47" t="str">
         <f ca="1"/>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2514,7 +2621,7 @@
       </c>
       <c r="E48" t="str">
         <f ca="1"/>
-        <v>overcast clouds</v>
+        <v>few clouds</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2544,7 +2651,7 @@
       </c>
       <c r="E51" t="str">
         <f ca="1"/>
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2554,7 +2661,7 @@
       </c>
       <c r="E52" t="str">
         <f ca="1"/>
-        <v>overcast clouds</v>
+        <v>few clouds</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2564,7 +2671,7 @@
       </c>
       <c r="E53" t="str">
         <f ca="1"/>
-        <v>04d</v>
+        <v>02n</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -2574,8 +2681,328 @@
       </c>
       <c r="E54">
         <f ca="1"/>
-        <v>45026.578321759262</v>
-      </c>
+        <v>45026.975983796299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{F85D5262-F490-48A5-BE9A-5C1134F18D42}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FD5298-4E88-478C-B471-EEF8C3AEE919}">
+  <dimension ref="A2:J58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" customWidth="1"/>
+    <col min="4" max="4" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="20.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="13"/>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">MID(CELL("filename",B4),FIND("]",CELL("filename",B4))+1,255)</f>
+        <v>2.11 POST - form data</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="13"/>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="13"/>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13" t="str">
+        <f ca="1">IF(COUNTIF(I19:J20,TRUE)=4,"OK","NG")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="str">
+        <f ca="1">FILE_DIR&amp;"deepl-api-key.txt"</f>
+        <v>D:\data\git\exlibris\samples\deepl-api-key.txt</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="11"/>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="str" cm="1">
+        <f t="array" aca="1" ref="F10" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
+        <v>System.String:7C3CEAFC-812E-4807-B38B-5576B862DB98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="11"/>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="str" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">_xll.Exlibris.WebAPI.POST(E6,E12:F13,,E9:F10)</f>
+        <v>Newtonsoft.Json.Linq.JObject:CAA2E79B-4874-43A0-995C-F1B21912BFE2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" t="str" cm="1">
+        <f t="array" aca="1" ref="D19:E20" ca="1">_xll.Exlibris.JSON.Values(E16)</f>
+        <v>$.translations[0].detected_source_language</v>
+      </c>
+      <c r="E19" t="str">
+        <f ca="1"/>
+        <v>EN</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="b">
+        <f ca="1">D19=F19</f>
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <f t="shared" ref="J19:J20" ca="1" si="0">E19=G19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="15" t="str">
+        <f ca="1"/>
+        <v>$.translations[0].text</v>
+      </c>
+      <c r="E20" t="str">
+        <f ca="1"/>
+        <v>Hallo Welt!</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" t="b">
+        <f t="shared" ref="I20" ca="1" si="1">D20=F20</f>
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="16"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D43" s="16"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D47" s="16"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" s="16"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57" s="16"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2590,16 +3017,16 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{F85D5262-F490-48A5-BE9A-5C1134F18D42}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{8791DF4E-24D9-40CD-873D-9CD0645253B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCC5ED3-C336-4B8D-AA2B-04FC00C3192F}">
-  <dimension ref="B2:I31"/>
+  <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2656,10 +3083,10 @@
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.Exlibris.Utility.Objects.Count(_xll.Exlibris.Utility.TimeAtInterval())</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7" t="b">
         <f>E7=G7</f>
@@ -2673,32 +3100,32 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="str" cm="1">
-        <f t="array" ref="D10:E31">_xll.Exlibris.Utility.Objects.Handles(_xll.Exlibris.Utility.TimeAtInterval())</f>
-        <v>Newtonsoft.Json.Linq.JObject:7108E454-310D-45EB-93A2-F840ABBBC410</v>
+        <f t="array" ref="D10:E33">_xll.Exlibris.Utility.Objects.Handles(_xll.Exlibris.Utility.TimeAtInterval())</f>
+        <v>Newtonsoft.Json.Linq.JObject:F719CC8E-22CD-44A6-9ED8-737984406CF8</v>
       </c>
       <c r="E10" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E14:E14</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!E27:E27</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:614B4BBB-AB95-4E8E-BE4E-59BD54E157D4</v>
+        <v>System.String:7C3CEAFC-812E-4807-B38B-5576B862DB98</v>
       </c>
       <c r="E11" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.6 POST with Header!E9:E9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.11 POST - form data!F10:F10</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:A6CBBB6D-D0B4-4611-8151-FFB8E96F0B68</v>
+        <v>Newtonsoft.Json.Linq.JObject:5537E037-23BC-462D-AAED-54E41F0537ED</v>
       </c>
       <c r="E12" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.5 PATCH!E9:E9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.3 PUT!E12:E12</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:FCFFAB44-A3B4-48B3-84F4-107335810E4B</v>
+        <v>Newtonsoft.Json.Linq.JObject:1C89B920-0472-486F-A722-631474D31736</v>
       </c>
       <c r="E13" t="str">
         <v>[2.webapi-sample-and-test.xlsx]2.6 POST with Header!E15:E15</v>
@@ -2706,111 +3133,111 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:E88A387E-CD69-479D-B595-403FDA21997C</v>
+        <v>Newtonsoft.Json.Linq.JObject:BFEAE654-9F48-425C-A884-B0028C8410AA</v>
       </c>
       <c r="E14" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.7 Bearer!E12:E12</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E18:E18</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:27FB4B73-31F5-430B-8C37-CADFBB9A47C9</v>
+        <v>Newtonsoft.Json.Linq.JObject:ECAD67FA-0B91-4797-AD78-28351726930C</v>
       </c>
       <c r="E15" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E18:E18</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E14:E14</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:F099013D-8068-404B-8841-9257805EBDE3</v>
+        <v>System.Xml.XmlDocument:F48CA097-D9F6-4AE3-93C0-AFBE76F81577</v>
       </c>
       <c r="E16" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.5 PATCH!E15:E15</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E14:E14</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" t="str">
-        <v>System.String:77BDB921-1FBE-4648-91FD-0729FA6AADBC</v>
+        <v>Newtonsoft.Json.Linq.JObject:4D44B4A6-A60E-47F3-86BB-3A500DAC6347</v>
       </c>
       <c r="E17" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!F9:F9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.1 GET!E9:E9</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" t="str">
-        <v>System.String:A84D27E3-917F-4A70-B40E-EC28313214C1</v>
+        <v>Newtonsoft.Json.Linq.JObject:CE0E6809-22B2-4D9A-BB23-E2D9B6998BDF</v>
       </c>
       <c r="E18" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.7 Bearer!F9:F9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.4 DELETE!E9:E9</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:748B7BCE-4320-4E6A-BCE6-770D24F71D65</v>
+        <v>Newtonsoft.Json.Linq.JObject:B80667F7-DB0F-4C82-9A40-29AAF5B6E140</v>
       </c>
       <c r="E19" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.2 POST!E9:E9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.7 Bearer!E12:E12</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:7EC8B7F7-4F21-407B-AA1D-6165F5DE9BE6</v>
+        <v>Newtonsoft.Json.Linq.JObject:CAA2E79B-4874-43A0-995C-F1B21912BFE2</v>
       </c>
       <c r="E20" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.3 PUT!E12:E12</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.11 POST - form data!E16:E16</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:B5FC2B97-147F-42A3-83F9-F29BA3B697D3</v>
+        <v>System.String:0DA5BCB4-82FF-4B2D-B39C-8E37E2423919</v>
       </c>
       <c r="E21" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.1 GET!E9:E9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E12:E12</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="str">
-        <v>System.String:05557FB9-F7E7-4AC6-90C0-AFC4002476D0</v>
+        <v>Newtonsoft.Json.Linq.JObject:E5B21026-8017-4509-AB67-E54B2FA4E15D</v>
       </c>
       <c r="E22" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!F10:F10</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.3 PUT!E9:E9</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="str">
-        <v>System.Net.Http.HttpClient:32AE7F03-6531-407D-A884-F5012D890BD4</v>
+        <v>Newtonsoft.Json.Linq.JObject:5D77078F-BE90-472F-9D24-AF69621116A2</v>
       </c>
       <c r="E23" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E12:E12</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.5 PATCH!E15:E15</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:538ACAA4-2C71-4FA3-965A-DF6745019126</v>
+        <v>System.String:0B437516-8831-4260-A023-802639C0CC65</v>
       </c>
       <c r="E24" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!E27:E27</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!F9:F9</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" t="str">
-        <v>System.String:0007D792-C5BD-4CAD-9663-6648A6AFAFCD</v>
+        <v>Newtonsoft.Json.Linq.JObject:7D412203-CC5E-4776-97C6-E66674717EBA</v>
       </c>
       <c r="E25" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E14:E14</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.2 POST!E12:E12</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:7C4CFCED-F1E7-45CC-B87E-AED5688355EA</v>
+        <v>Newtonsoft.Json.Linq.JObject:B281AA74-2FEC-4C5F-88F6-2A0831B456C0</v>
       </c>
       <c r="E26" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.3 PUT!E9:E9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.5 PATCH!E9:E9</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" t="str">
-        <v>System.String:3E99E143-4E22-4BBC-8BB6-4575B1DB6874</v>
+        <v>System.String:42E33E7A-FD67-475B-9270-FD355A8A72E0</v>
       </c>
       <c r="E27" t="str">
         <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!E25:E25</v>
@@ -2818,34 +3245,50 @@
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" t="str">
-        <v>System.String:77F48DD1-71EC-4CF8-B1B8-95DEC0C43742</v>
+        <v>System.Net.Http.HttpClient:05784FB1-9FB4-4035-867E-F3E759A9AAB1</v>
       </c>
       <c r="E28" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!F23:F23</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E12:E12</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:7727FC0A-73F3-47F7-9801-3B295F73ABCE</v>
+        <v>System.String:2EAC5BA7-2776-456F-8778-66C6D87C579C</v>
       </c>
       <c r="E29" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.2 POST!E12:E12</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!F10:F10</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:A6817375-4F14-4AA4-9998-55D144D72836</v>
+        <v>Newtonsoft.Json.Linq.JObject:D69FE789-A938-473B-9421-ADD9797EB54C</v>
       </c>
       <c r="E30" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.4 DELETE!E9:E9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.6 POST with Header!E9:E9</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" t="str">
-        <v>System.Xml.XmlDocument:6D2D7AF1-DBE2-4ED2-87B6-F74EA7497FDD</v>
+        <v>Newtonsoft.Json.Linq.JObject:6BEB260E-4EBB-4C3A-9E14-5FBED3222F2F</v>
       </c>
       <c r="E31" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E15:E15</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.2 POST!E9:E9</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" t="str">
+        <v>System.String:8A52600B-62E5-4B68-A711-D53820B8A0EC</v>
+      </c>
+      <c r="E32" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.7 Bearer!F9:F9</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" t="str">
+        <v>System.String:002A0011-DB61-4042-BEE3-62896FC18161</v>
+      </c>
+      <c r="E33" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!F23:F23</v>
       </c>
     </row>
   </sheetData>
@@ -2930,7 +3373,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.WebAPI.GET(E6)</f>
-        <v>Newtonsoft.Json.Linq.JObject:B5FC2B97-147F-42A3-83F9-F29BA3B697D3</v>
+        <v>Newtonsoft.Json.Linq.JObject:4D44B4A6-A60E-47F3-86BB-3A500DAC6347</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2989,7 +3432,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B4 C4">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3066,7 +3509,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.JSON.JSONObject(E7)</f>
-        <v>Newtonsoft.Json.Linq.JObject:748B7BCE-4320-4E6A-BCE6-770D24F71D65</v>
+        <v>Newtonsoft.Json.Linq.JObject:6BEB260E-4EBB-4C3A-9E14-5FBED3222F2F</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3083,7 +3526,7 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" ref="E12">_xll.Exlibris.WebAPI.POST(E6,E9)</f>
-        <v>Newtonsoft.Json.Linq.JObject:7727FC0A-73F3-47F7-9801-3B295F73ABCE</v>
+        <v>Newtonsoft.Json.Linq.JObject:7D412203-CC5E-4776-97C6-E66674717EBA</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3145,12 +3588,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3227,7 +3670,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.JSON.JSONObject(E7)</f>
-        <v>Newtonsoft.Json.Linq.JObject:7C4CFCED-F1E7-45CC-B87E-AED5688355EA</v>
+        <v>Newtonsoft.Json.Linq.JObject:E5B21026-8017-4509-AB67-E54B2FA4E15D</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3244,7 +3687,7 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" ref="E12">_xll.Exlibris.WebAPI.PUT(E6,E9)</f>
-        <v>Newtonsoft.Json.Linq.JObject:7EC8B7F7-4F21-407B-AA1D-6165F5DE9BE6</v>
+        <v>Newtonsoft.Json.Linq.JObject:5537E037-23BC-462D-AAED-54E41F0537ED</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3306,7 +3749,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B4 C4">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3383,7 +3826,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.WebAPI.DELETE(E6)</f>
-        <v>Newtonsoft.Json.Linq.JObject:A6817375-4F14-4AA4-9998-55D144D72836</v>
+        <v>Newtonsoft.Json.Linq.JObject:CE0E6809-22B2-4D9A-BB23-E2D9B6998BDF</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3406,7 +3849,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B4 C4">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3484,7 +3927,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.JSON.JSONObject(E7)</f>
-        <v>Newtonsoft.Json.Linq.JObject:A6CBBB6D-D0B4-4611-8151-FFB8E96F0B68</v>
+        <v>Newtonsoft.Json.Linq.JObject:B281AA74-2FEC-4C5F-88F6-2A0831B456C0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3520,7 +3963,7 @@
       </c>
       <c r="E15" t="str" cm="1">
         <f t="array" ref="E15">_xll.Exlibris.WebAPI.PATCH(E6,E9)</f>
-        <v>Newtonsoft.Json.Linq.JObject:F099013D-8068-404B-8841-9257805EBDE3</v>
+        <v>Newtonsoft.Json.Linq.JObject:5D77078F-BE90-472F-9D24-AF69621116A2</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
@@ -3585,12 +4028,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3668,7 +4111,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.JSON.JSONObject(E7)</f>
-        <v>Newtonsoft.Json.Linq.JObject:614B4BBB-AB95-4E8E-BE4E-59BD54E157D4</v>
+        <v>Newtonsoft.Json.Linq.JObject:D69FE789-A938-473B-9421-ADD9797EB54C</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3704,7 +4147,7 @@
       </c>
       <c r="E15" t="str" cm="1">
         <f t="array" ref="E15">_xll.Exlibris.WebAPI.POST(E6,E9,,E11:F12)</f>
-        <v>Newtonsoft.Json.Linq.JObject:FCFFAB44-A3B4-48B3-84F4-107335810E4B</v>
+        <v>Newtonsoft.Json.Linq.JObject:1C89B920-0472-486F-A722-631474D31736</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
@@ -3716,7 +4159,7 @@
         <v>$.bookingid</v>
       </c>
       <c r="F17">
-        <v>11777</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.55000000000000004">
@@ -3798,12 +4241,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3889,7 +4332,7 @@
       </c>
       <c r="F9" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
-        <v>System.String:A84D27E3-917F-4A70-B40E-EC28313214C1</v>
+        <v>System.String:8A52600B-62E5-4B68-A711-D53820B8A0EC</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3906,7 +4349,7 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_xll.Exlibris.WebAPI.GET(E6,E9:F9)</f>
-        <v>Newtonsoft.Json.Linq.JObject:E88A387E-CD69-479D-B595-403FDA21997C</v>
+        <v>Newtonsoft.Json.Linq.JObject:B80667F7-DB0F-4C82-9A40-29AAF5B6E140</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4255,12 +4698,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4424,7 +4867,7 @@
       </c>
       <c r="F23" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">_xll.Exlibris.Utility.LoadText(E19)</f>
-        <v>System.String:77F48DD1-71EC-4CF8-B1B8-95DEC0C43742</v>
+        <v>System.String:002A0011-DB61-4042-BEE3-62896FC18161</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.55000000000000004">
@@ -4433,7 +4876,7 @@
       </c>
       <c r="E25" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">_xll.Exlibris.WebAPI.URL(E21,E22:F23,TRUE)</f>
-        <v>System.String:3E99E143-4E22-4BBC-8BB6-4575B1DB6874</v>
+        <v>System.String:42E33E7A-FD67-475B-9270-FD355A8A72E0</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.55000000000000004">
@@ -4442,7 +4885,7 @@
       </c>
       <c r="E27" t="str" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">_xll.Exlibris.WebAPI.GET(E25)</f>
-        <v>Newtonsoft.Json.Linq.JObject:538ACAA4-2C71-4FA3-965A-DF6745019126</v>
+        <v>Newtonsoft.Json.Linq.JObject:F719CC8E-22CD-44A6-9ED8-737984406CF8</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.55000000000000004">
@@ -4475,7 +4918,7 @@
       </c>
       <c r="F31">
         <f ca="1"/>
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.55000000000000004">
@@ -4495,7 +4938,7 @@
       </c>
       <c r="F33" t="str">
         <f ca="1"/>
-        <v>overcast clouds</v>
+        <v>few clouds</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4505,7 +4948,7 @@
       </c>
       <c r="F34" t="str">
         <f ca="1"/>
-        <v>04d</v>
+        <v>02n</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4525,7 +4968,7 @@
       </c>
       <c r="F36">
         <f ca="1"/>
-        <v>286.69</v>
+        <v>281.52999999999997</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4535,7 +4978,7 @@
       </c>
       <c r="F37">
         <f ca="1"/>
-        <v>286.02999999999997</v>
+        <v>278.45999999999998</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4545,7 +4988,7 @@
       </c>
       <c r="F38">
         <f ca="1"/>
-        <v>284.52999999999997</v>
+        <v>280.39999999999998</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4555,7 +4998,7 @@
       </c>
       <c r="F39">
         <f ca="1"/>
-        <v>289.14999999999998</v>
+        <v>282.31</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4565,7 +5008,7 @@
       </c>
       <c r="F40">
         <f ca="1"/>
-        <v>1006</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4575,7 +5018,7 @@
       </c>
       <c r="F41">
         <f ca="1"/>
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4595,7 +5038,7 @@
       </c>
       <c r="F43">
         <f ca="1"/>
-        <v>6.69</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4605,7 +5048,7 @@
       </c>
       <c r="F44">
         <f ca="1"/>
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4615,7 +5058,7 @@
       </c>
       <c r="F45">
         <f ca="1"/>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4625,7 +5068,7 @@
       </c>
       <c r="F46">
         <f ca="1"/>
-        <v>1681134767</v>
+        <v>1681169125</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4665,7 +5108,7 @@
       </c>
       <c r="F50">
         <f ca="1"/>
-        <v>1681103782</v>
+        <v>1681190049</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4675,7 +5118,7 @@
       </c>
       <c r="F51">
         <f ca="1"/>
-        <v>1681152422</v>
+        <v>1681238922</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.55000000000000004">
@@ -4721,12 +5164,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/samples/2.webapi-sample-and-test.xlsx
+++ b/samples/2.webapi-sample-and-test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\exlibris\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mugenfugafuga\git\exlibris\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AC39DB-C41F-462C-8738-7B6C900CFE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAEB2F2-00FE-4101-A347-1FC671029DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34510" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{84C49BD8-384C-4066-B31D-9BE02E5241E8}"/>
   </bookViews>
@@ -18,14 +18,13 @@
     <sheet name="2.2 POST" sheetId="4" r:id="rId3"/>
     <sheet name="2.3 PUT" sheetId="5" r:id="rId4"/>
     <sheet name="2.4 DELETE" sheetId="6" r:id="rId5"/>
-    <sheet name="2.5 PATCH" sheetId="7" r:id="rId6"/>
-    <sheet name="2.6 POST with Header" sheetId="8" r:id="rId7"/>
-    <sheet name="2.7 Bearer" sheetId="9" r:id="rId8"/>
-    <sheet name="2.8 URL params" sheetId="11" r:id="rId9"/>
-    <sheet name="2.9 HttpClient" sheetId="12" r:id="rId10"/>
-    <sheet name="2.10 xml response" sheetId="13" r:id="rId11"/>
-    <sheet name="2.11 POST - form data" sheetId="14" r:id="rId12"/>
-    <sheet name="2.99 misc" sheetId="2" r:id="rId13"/>
+    <sheet name="2.6 POST with Header" sheetId="8" r:id="rId6"/>
+    <sheet name="2.7 Bearer" sheetId="9" r:id="rId7"/>
+    <sheet name="2.8 URL params" sheetId="11" r:id="rId8"/>
+    <sheet name="2.9 HttpClient" sheetId="12" r:id="rId9"/>
+    <sheet name="2.10 xml response" sheetId="13" r:id="rId10"/>
+    <sheet name="2.11 POST - form data" sheetId="14" r:id="rId11"/>
+    <sheet name="2.99 misc" sheetId="2" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_DIR">top!$C$2</definedName>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="100">
   <si>
     <t>directory</t>
     <phoneticPr fontId="2"/>
@@ -232,10 +231,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2.5 PATCH</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>GET with Header</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -264,18 +259,6 @@
   </si>
   <si>
     <t>header</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PATCH</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{"title": "foo"}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>=Exlibris.WebAPI.PATCH(E6,E9)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -653,27 +636,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -890,311 +853,241 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>37</v>
-        <stp/>
-        <stp>d2e81a13-9c24-40be-992d-2f0ad0acf669</stp>
-        <tr r="E26" s="8"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+    <main first="rtdsrv_75fb6336ccab4501a825bb190f03f157">
       <tp>
         <v>1</v>
         <stp/>
-        <stp>35bcf3f9-b788-4bb0-80c5-4fe116ad9925</stp>
+        <stp>74174404-817b-4651-aa1a-b2c4330f71c7</stp>
+        <tr r="F23" s="11"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5b3380cf-10e0-4ecb-907a-a73b939a8957</stp>
+        <tr r="D10" s="2"/>
+        <tr r="E7" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>93567ba9-08a6-4439-8d53-5348ae0590bd</stp>
+        <tr r="E9" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>32223acd-2347-4989-ac6f-d6af6da77700</stp>
+        <tr r="E16" s="14"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>bfc34238-d8e4-4bd9-bd0c-eb6fb0683a31</stp>
         <tr r="E12" s="13"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>bbff73ba-20a1-4226-a1be-3910a2a8eb65</stp>
-        <tr r="E9" s="5"/>
-      </tp>
-      <tp>
-        <v>22</v>
-        <stp/>
-        <stp>4e160e74-8122-4b89-b99f-3c7d3205a7a4</stp>
-        <tr r="E16" s="12"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>2f7a3654-237a-4c0f-999e-3e4c06871665</stp>
-        <tr r="E11" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>2197fb92-967e-4ab6-9e7a-5062e44f97eb</stp>
-        <tr r="F23" s="11"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>984fed5c-f442-4ea8-a3d4-5513c9cb73f7</stp>
-        <tr r="E12" s="4"/>
+        <stp>ba02dfec-3b3c-457a-b080-2fbf40c5a6b0</stp>
+        <tr r="F10" s="14"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>fe8f7e41-c00b-4b84-8f63-87cfa8ce9412</stp>
-        <tr r="E9" s="3"/>
+        <stp>ef04c0e0-8619-48e7-b50e-5b50862e91a9</stp>
+        <tr r="E9" s="6"/>
       </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>88193993-2278-4a50-a3c0-7999a3a62fbf</stp>
+        <tr r="E16" s="12"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>6901ea39-176e-4970-9846-2dec2c427e99</stp>
+        <tr r="E29" s="11"/>
+      </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>fa6b6253-53a0-4a9c-be62-1924a3eaab49</stp>
+        <stp>08520f5b-125c-454c-bf6e-adeeca24a0b4</stp>
+        <tr r="E14" s="13"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>621957ca-c3a3-4ffe-b487-6537d976f833</stp>
+        <tr r="E18" s="13"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>63baaeac-bd51-4fef-9a7f-a8339d760795</stp>
+        <tr r="E19" s="4"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>80f6e078-397d-4974-8a77-6967807fa7bc</stp>
+        <tr r="E11" s="6"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>1b80a27a-def8-4220-a84e-cf433c30b7a5</stp>
+        <tr r="E11" s="3"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>4e5005cb-380e-4fbc-a702-7880f4f1d9aa</stp>
+        <tr r="E14" s="4"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>ce62bc0a-5f00-4e1e-89fb-de2f0e6cc5f2</stp>
+        <tr r="E12" s="9"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3c099247-2401-4067-a6dc-95986513a424</stp>
+        <tr r="E16" s="3"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>1b2898a4-86b4-4304-a9bf-b6d7bea81c5f</stp>
+        <tr r="E25" s="11"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>9fad7b03-266a-4090-a8eb-3f2fb78ed4f0</stp>
+        <tr r="D19" s="14"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a62922d0-9c83-4221-af60-e8c047f7839a</stp>
+        <tr r="E15" s="8"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>8ec1280d-db3b-4254-bb78-14689525bcbd</stp>
+        <tr r="E14" s="12"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>525dabb3-34b3-4054-93da-1922b4aa7eeb</stp>
+        <tr r="F10" s="13"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>72878148-3992-488c-8862-5734f0be986e</stp>
+        <tr r="E17" s="8"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>9ce10f2a-8437-40f7-9b15-cc19253ca7fc</stp>
+        <tr r="E12" s="12"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>bbe51713-2f3a-4768-bc3b-fb5140882c8d</stp>
+        <tr r="E14" s="5"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>932ce0c8-8d86-45db-b7c0-33c912c4af9e</stp>
+        <tr r="F9" s="12"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>9d627738-0fe4-4398-9923-f318237ce4df</stp>
         <tr r="E12" s="5"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>ef53668b-4bb0-4909-96b1-7c93e0cb27c8</stp>
-        <tr r="D19" s="14"/>
+        <stp>009d4313-9054-49d3-ae03-41e8ffc632e1</stp>
+        <tr r="E9" s="8"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>f5b06ecd-7814-4ce0-9b2b-99adfcba2d65</stp>
-        <tr r="E12" s="12"/>
+        <stp>fd5b1dea-5dd6-452c-99ba-142d64a42d74</stp>
+        <tr r="E19" s="12"/>
       </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
       <tp>
-        <v>1</v>
+        <v>3</v>
         <stp/>
-        <stp>c8ade10e-70bd-46b4-b8e8-3379d94d620a</stp>
-        <tr r="E17" s="9"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>1cf81ac4-2fde-4875-b7fb-734d9da48ce2</stp>
-        <tr r="E9" s="7"/>
+        <stp>0d4c392b-9454-4fd1-9b60-373c70e2972d</stp>
+        <tr r="E19" s="5"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>b9ff9395-f713-476e-8fff-37611667b991</stp>
-        <tr r="E17" s="8"/>
+        <stp>b83bb69a-e49d-469a-b647-cafe25d9c91a</stp>
+        <tr r="E9" s="4"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>b79878cf-611d-44e9-8910-07fc6a3ab06e</stp>
-        <tr r="E9" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>ce4d9c3c-2487-4e41-8564-7f98dd80ebee</stp>
-        <tr r="F10" s="14"/>
+        <stp>0eab6895-fb14-4d71-ae84-8daaa33a56d5</stp>
+        <tr r="D20" s="13"/>
       </tp>
       <tp>
-        <v>37</v>
+        <v>3</v>
         <stp/>
-        <stp>68138cd8-645f-4784-a21f-48a0924c9102</stp>
-        <tr r="E19" s="4"/>
-      </tp>
-      <tp>
-        <v>22</v>
-        <stp/>
-        <stp>71c1542e-520a-4a44-b766-cd34f4636141</stp>
+        <stp>9f4c9494-a328-4e0b-877d-b71fefd5bd67</stp>
         <tr r="E14" s="9"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>37</v>
-        <stp/>
-        <stp>71fb1843-ffe1-46b9-8467-d26dcddc1edf</stp>
-        <tr r="E19" s="5"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>54a41870-0bca-4017-978b-ee34185e5c5a</stp>
-        <tr r="E14" s="4"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>566826ca-3e01-4213-8764-13b8825649ea</stp>
-        <tr r="E14" s="12"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>579ed8a0-e92f-4584-959b-fd66821109ad</stp>
-        <tr r="F10" s="13"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>82f80616-2a7b-449b-9651-cd1465312861</stp>
-        <tr r="E19" s="12"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>147e3cee-770f-4930-8116-b5a86e0d38e1</stp>
-        <tr r="F9" s="9"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>bb848701-7222-43c8-b854-03fcae76a03c</stp>
-        <tr r="E14" s="13"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>251d3aaf-2334-4f58-8648-6e04ccaa5e94</stp>
-        <tr r="E14" s="5"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>37</v>
-        <stp/>
-        <stp>74283da2-529f-409e-abf8-55b4e9175a8c</stp>
-        <tr r="E16" s="3"/>
-      </tp>
-      <tp>
-        <v>37</v>
-        <stp/>
-        <stp>84403d79-c4b6-4b0f-8e4e-84623dad15de</stp>
-        <tr r="E22" s="7"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>f26963bb-5344-405f-bcef-77a86b26df5e</stp>
-        <tr r="D20" s="13"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>37</v>
-        <stp/>
-        <stp>a73e5fc1-de75-4a23-acfc-354c701b2ad7</stp>
-        <tr r="E11" s="6"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>37</v>
-        <stp/>
-        <stp>fc74e4ca-ab03-4c56-ae59-e2bd22e5702d</stp>
-        <tr r="D10" s="2"/>
-        <tr r="E7" s="2"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>3a811f85-a4c4-4896-875c-5f31548212e6</stp>
-        <tr r="E9" s="8"/>
+        <stp>52b947ae-f2f8-45ea-9047-df73805d131a</stp>
+        <tr r="E17" s="9"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>89665397-8399-40d4-8249-9f9a3ab2b323</stp>
-        <tr r="E12" s="9"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>d9f47733-ddf9-4d31-a63f-c40a6cd85902</stp>
-        <tr r="E15" s="7"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>f4bbbc16-e10a-48af-9445-08378f699988</stp>
-        <tr r="E29" s="11"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>ccc7e737-1f76-4f07-90a7-bf562ee367fa</stp>
-        <tr r="E25" s="11"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>4e92e06e-05a6-42f7-adc9-aa3762b40bbc</stp>
-        <tr r="E9" s="6"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>43c6861c-613a-4b8c-be56-4c0bfbb95d95</stp>
-        <tr r="E17" s="7"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c6441ca1-5f21-490c-b190-e87d0fa52e5d</stp>
-        <tr r="E15" s="8"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>f0a640ca-0660-4c97-bb34-90b4ad64faf5</stp>
-        <tr r="E16" s="14"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>dba7597f-0919-4927-9275-38a90fd744d5</stp>
+        <stp>69e9870f-24a0-4fde-a412-79c5e18e54ed</stp>
         <tr r="E27" s="11"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>6c8f55b1-90f2-446d-97f9-8ca8d82db4fd</stp>
-        <tr r="E18" s="13"/>
+        <stp>8d4511d2-69e1-457e-902e-e52ec0eb7e27</stp>
+        <tr r="F9" s="9"/>
       </tp>
-    </main>
-    <main first="rtdsrv_edbe8f33a933410ca32815afb1b34191">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>ba6d4412-7dbe-40e2-90ff-d43cb1bd4dc0</stp>
+        <tr r="E12" s="4"/>
+      </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>7d86ec65-c78e-4190-9310-abe3d2e09758</stp>
-        <tr r="F9" s="12"/>
+        <stp>5de02a1e-d4b3-4176-ab61-5c0d74ee4a57</stp>
+        <tr r="E9" s="5"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1fadf2d9-4288-490b-a9be-81cab628117e</stp>
+        <tr r="E26" s="8"/>
       </tp>
     </main>
   </volType>
@@ -1498,37 +1391,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEB1461-68E8-4C90-9DB3-29473B959A28}">
-  <dimension ref="B2:D23"/>
+  <dimension ref="B2:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="84.83203125" customWidth="1"/>
+    <col min="3" max="3" width="84.875" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">LEFT(CELL("filename"),FIND("[",CELL("filename"))-1)</f>
-        <v>D:\data\git\exlibris\samples\</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>D:\mugenfugafuga\git\exlibris\samples\</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f ca="1">IF(COUNTIF(D7:D34,"OK")=COUNTA(B7:B34),"OK","NG")</f>
+        <f ca="1">IF(COUNTIF(D7:D33,"OK")=COUNTA(B7:B33),"OK","NG")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1539,7 +1432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1552,7 +1445,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
@@ -1565,7 +1458,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
@@ -1578,7 +1471,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1591,139 +1484,126 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C11" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDIRECT("'"&amp;B11&amp;"'!C3")</f>
-        <v>PATCH</v>
+        <v>GET with Header</v>
       </c>
       <c r="D11" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDIRECT("'"&amp;B11&amp;"'!C4")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C12" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDIRECT("'"&amp;B12&amp;"'!C3")</f>
-        <v>GET with Header</v>
+        <v>Bearer Authentication</v>
       </c>
       <c r="D12" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDIRECT("'"&amp;B12&amp;"'!C4")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C13" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDIRECT("'"&amp;B13&amp;"'!C3")</f>
-        <v>Bearer Authentication</v>
+        <v>build URL</v>
       </c>
       <c r="D13" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDIRECT("'"&amp;B13&amp;"'!C4")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C14" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDIRECT("'"&amp;B14&amp;"'!C3")</f>
-        <v>build URL</v>
+        <v>HttpClient</v>
       </c>
       <c r="D14" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDIRECT("'"&amp;B14&amp;"'!C4")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C15" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDIRECT("'"&amp;B15&amp;"'!C3")</f>
-        <v>HttpClient</v>
+        <v>xml response</v>
       </c>
       <c r="D15" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDIRECT("'"&amp;B15&amp;"'!C4")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C16" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">INDIRECT("'"&amp;B16&amp;"'!C3")</f>
-        <v>xml response</v>
+        <v>POST - form data</v>
       </c>
       <c r="D16" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDIRECT("'"&amp;B16&amp;"'!C4")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C17" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDIRECT("'"&amp;B17&amp;"'!C3")</f>
-        <v>POST - form data</v>
+        <v>misc</v>
       </c>
       <c r="D17" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDIRECT("'"&amp;B17&amp;"'!C4")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="C18" ca="1">INDIRECT("'"&amp;B18&amp;"'!C3")</f>
-        <v>misc</v>
-      </c>
-      <c r="D18" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">INDIRECT("'"&amp;B18&amp;"'!C4")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="2"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="2"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="2"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C4 D7:D23">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+  <conditionalFormatting sqref="C4 D7:D22">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1733,488 +1613,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D63759A-8A67-483D-B868-DA66E1017A99}">
-  <dimension ref="A2:F50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.9140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13"/>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="str" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">MID(CELL("filename",B4),FIND("]",CELL("filename",B4))+1,255)</f>
-        <v>2.9 HttpClient</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13"/>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13"/>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13" t="str">
-        <f ca="1">IF(E17=E16,"OK","NG")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="str">
-        <f ca="1">FILE_DIR&amp;"git-access-token.txt"</f>
-        <v>D:\data\git\exlibris\samples\git-access-token.txt</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="11"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" t="str" cm="1">
-        <f t="array" aca="1" ref="F9" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
-        <v>System.String:0B437516-8831-4260-A023-802639C0CC65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="str" cm="1">
-        <f t="array" aca="1" ref="E12" ca="1">_xll.Exlibris.WebAPI.Client(E9:F9)</f>
-        <v>System.Net.Http.HttpClient:05784FB1-9FB4-4035-867E-F3E759A9AAB1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="str" cm="1">
-        <f t="array" aca="1" ref="E14" ca="1">_xll.Exlibris.WebAPI.GET(E6,E12)</f>
-        <v>Newtonsoft.Json.Linq.JObject:ECAD67FA-0B91-4797-AD78-28351726930C</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="str" cm="1">
-        <f t="array" aca="1" ref="E16" ca="1">_xll.Exlibris.WebAPI.Status(E14)</f>
-        <v>OK(200)</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="str" cm="1">
-        <f t="array" aca="1" ref="E19:F50" ca="1">_xll.Exlibris.JSON.Values(E14,,TRUE)</f>
-        <v>$.login</v>
-      </c>
-      <c r="F19" t="str">
-        <f ca="1"/>
-        <v>mugenfugafuga</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="11"/>
-      <c r="E20" t="str">
-        <f ca="1"/>
-        <v>$.id</v>
-      </c>
-      <c r="F20">
-        <f ca="1"/>
-        <v>52103142</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" s="11"/>
-      <c r="E21" t="str">
-        <f ca="1"/>
-        <v>$.node_id</v>
-      </c>
-      <c r="F21" t="str">
-        <f ca="1"/>
-        <v>MDQ6VXNlcjUyMTAzMTQy</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" s="11"/>
-      <c r="E22" t="str">
-        <f ca="1"/>
-        <v>$.avatar_url</v>
-      </c>
-      <c r="F22" t="str">
-        <f ca="1"/>
-        <v>https://avatars.githubusercontent.com/u/52103142?v=4</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" t="str">
-        <f ca="1"/>
-        <v>$.gravatar_id</v>
-      </c>
-      <c r="F23" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E24" t="str">
-        <f ca="1"/>
-        <v>$.url</v>
-      </c>
-      <c r="F24" t="str">
-        <f ca="1"/>
-        <v>https://api.github.com/users/mugenfugafuga</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E25" t="str">
-        <f ca="1"/>
-        <v>$.html_url</v>
-      </c>
-      <c r="F25" t="str">
-        <f ca="1"/>
-        <v>https://github.com/mugenfugafuga</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" t="str">
-        <f ca="1"/>
-        <v>$.followers_url</v>
-      </c>
-      <c r="F26" t="str">
-        <f ca="1"/>
-        <v>https://api.github.com/users/mugenfugafuga/followers</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" t="str">
-        <f ca="1"/>
-        <v>$.following_url</v>
-      </c>
-      <c r="F27" t="str">
-        <f ca="1"/>
-        <v>https://api.github.com/users/mugenfugafuga/following{/other_user}</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" t="str">
-        <f ca="1"/>
-        <v>$.gists_url</v>
-      </c>
-      <c r="F28" t="str">
-        <f ca="1"/>
-        <v>https://api.github.com/users/mugenfugafuga/gists{/gist_id}</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" t="str">
-        <f ca="1"/>
-        <v>$.starred_url</v>
-      </c>
-      <c r="F29" t="str">
-        <f ca="1"/>
-        <v>https://api.github.com/users/mugenfugafuga/starred{/owner}{/repo}</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E30" t="str">
-        <f ca="1"/>
-        <v>$.subscriptions_url</v>
-      </c>
-      <c r="F30" t="str">
-        <f ca="1"/>
-        <v>https://api.github.com/users/mugenfugafuga/subscriptions</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" t="str">
-        <f ca="1"/>
-        <v>$.organizations_url</v>
-      </c>
-      <c r="F31" t="str">
-        <f ca="1"/>
-        <v>https://api.github.com/users/mugenfugafuga/orgs</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E32" t="str">
-        <f ca="1"/>
-        <v>$.repos_url</v>
-      </c>
-      <c r="F32" t="str">
-        <f ca="1"/>
-        <v>https://api.github.com/users/mugenfugafuga/repos</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E33" t="str">
-        <f ca="1"/>
-        <v>$.events_url</v>
-      </c>
-      <c r="F33" t="str">
-        <f ca="1"/>
-        <v>https://api.github.com/users/mugenfugafuga/events{/privacy}</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E34" t="str">
-        <f ca="1"/>
-        <v>$.received_events_url</v>
-      </c>
-      <c r="F34" t="str">
-        <f ca="1"/>
-        <v>https://api.github.com/users/mugenfugafuga/received_events</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E35" t="str">
-        <f ca="1"/>
-        <v>$.type</v>
-      </c>
-      <c r="F35" t="str">
-        <f ca="1"/>
-        <v>User</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E36" t="str">
-        <f ca="1"/>
-        <v>$.site_admin</v>
-      </c>
-      <c r="F36" t="b">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E37" t="str">
-        <f ca="1"/>
-        <v>$.name</v>
-      </c>
-      <c r="F37" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E38" t="str">
-        <f ca="1"/>
-        <v>$.company</v>
-      </c>
-      <c r="F38" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E39" t="str">
-        <f ca="1"/>
-        <v>$.blog</v>
-      </c>
-      <c r="F39" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" t="str">
-        <f ca="1"/>
-        <v>$.location</v>
-      </c>
-      <c r="F40" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E41" t="str">
-        <f ca="1"/>
-        <v>$.email</v>
-      </c>
-      <c r="F41" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E42" t="str">
-        <f ca="1"/>
-        <v>$.hireable</v>
-      </c>
-      <c r="F42" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E43" t="str">
-        <f ca="1"/>
-        <v>$.bio</v>
-      </c>
-      <c r="F43" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E44" t="str">
-        <f ca="1"/>
-        <v>$.twitter_username</v>
-      </c>
-      <c r="F44" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E45" t="str">
-        <f ca="1"/>
-        <v>$.public_repos</v>
-      </c>
-      <c r="F45">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E46" t="str">
-        <f ca="1"/>
-        <v>$.public_gists</v>
-      </c>
-      <c r="F46">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E47" t="str">
-        <f ca="1"/>
-        <v>$.followers</v>
-      </c>
-      <c r="F47">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E48" t="str">
-        <f ca="1"/>
-        <v>$.following</v>
-      </c>
-      <c r="F48">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E49" t="str">
-        <f ca="1"/>
-        <v>$.created_at</v>
-      </c>
-      <c r="F49">
-        <f ca="1"/>
-        <v>43638.51152777778</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E50" t="str">
-        <f ca="1"/>
-        <v>$.updated_at</v>
-      </c>
-      <c r="F50">
-        <f ca="1"/>
-        <v>45018.362881944442</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BCDC55-56C2-4DC7-AD72-3E2BF448712B}">
   <dimension ref="A2:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
     <col min="4" max="4" width="26.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
-    <col min="6" max="6" width="20.4140625" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -2224,16 +1638,16 @@
         <v>2.10 xml response</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -2243,98 +1657,98 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D6" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D7" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E7" t="str">
         <f ca="1">FILE_DIR&amp;"openweathermap-appid.txt"</f>
-        <v>D:\data\git\exlibris\samples\openweathermap-appid.txt</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>D:\mugenfugafuga\git\exlibris\samples\openweathermap-appid.txt</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D8" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D9" s="11"/>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D10" s="11"/>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F10" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
-        <v>System.String:2EAC5BA7-2776-456F-8778-66C6D87C579C</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>System.String:A85F2899-6AD6-413A-A66E-CD90B7756F4C</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D12" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_xll.Exlibris.WebAPI.URL(E6,E8:F10,TRUE)</f>
-        <v>System.String:0DA5BCB4-82FF-4B2D-B39C-8E37E2423919</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>System.String:C4E5E94A-9072-4ACA-BCD8-DC7F0B0208F3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E14" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">_xll.Exlibris.WebAPI.GET(E12)</f>
-        <v>System.Xml.XmlDocument:F48CA097-D9F6-4AE3-93C0-AFBE76F81577</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>System.Xml.XmlDocument:905460BF-4372-418D-8D8B-95C9A365AA41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D16" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E16" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">_xll.Exlibris.XML.Stringfy(E14)</f>
-        <v>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;current&gt;&lt;city id="2643743" name="London"&gt;&lt;coord lon="-0.1257" lat="51.5085"&gt;&lt;/coord&gt;&lt;country&gt;GB&lt;/country&gt;&lt;timezone&gt;3600&lt;/timezone&gt;&lt;sun rise="2023-04-11T05:14:09" set="2023-04-11T18:48:42"&gt;&lt;/sun&gt;&lt;/city&gt;&lt;temperature value="281.53" min="280.4" max="282.31" unit="kelvin"&gt;&lt;/temperature&gt;&lt;feels_like value="278.46" unit="kelvin"&gt;&lt;/feels_like&gt;&lt;humidity value="78" unit="%"&gt;&lt;/humidity&gt;&lt;pressure value="1010" unit="hPa"&gt;&lt;/pressure&gt;&lt;wind&gt;&lt;speed value="5.66" unit="m/s" name="Moderate breeze"&gt;&lt;/speed&gt;&lt;gusts&gt;&lt;/gusts&gt;&lt;direction value="250" code="WSW" name="West-southwest"&gt;&lt;/direction&gt;&lt;/wind&gt;&lt;clouds value="20" name="few clouds"&gt;&lt;/clouds&gt;&lt;visibility value="10000"&gt;&lt;/visibility&gt;&lt;precipitation mode="no"&gt;&lt;/precipitation&gt;&lt;weather number="801" value="few clouds" icon="02n"&gt;&lt;/weather&gt;&lt;lastupdate value="2023-04-10T23:25:25"&gt;&lt;/lastupdate&gt;&lt;/current&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;current&gt;&lt;city id="2643743" name="London"&gt;&lt;coord lon="-0.1257" lat="51.5085"&gt;&lt;/coord&gt;&lt;country&gt;GB&lt;/country&gt;&lt;timezone&gt;3600&lt;/timezone&gt;&lt;sun rise="2023-09-29T05:57:05" set="2023-09-29T17:44:44"&gt;&lt;/sun&gt;&lt;/city&gt;&lt;temperature value="292.36" min="290.62" max="293.35" unit="kelvin"&gt;&lt;/temperature&gt;&lt;feels_like value="291.8" unit="kelvin"&gt;&lt;/feels_like&gt;&lt;humidity value="56" unit="%"&gt;&lt;/humidity&gt;&lt;pressure value="1021" unit="hPa"&gt;&lt;/pressure&gt;&lt;wind&gt;&lt;speed value="5.66" unit="m/s" name="Moderate breeze"&gt;&lt;/speed&gt;&lt;gusts&gt;&lt;/gusts&gt;&lt;direction value="280" code="W" name="West"&gt;&lt;/direction&gt;&lt;/wind&gt;&lt;clouds value="18" name="few clouds"&gt;&lt;/clouds&gt;&lt;visibility value="10000"&gt;&lt;/visibility&gt;&lt;precipitation mode="no"&gt;&lt;/precipitation&gt;&lt;weather number="801" value="few clouds" icon="02d"&gt;&lt;/weather&gt;&lt;lastupdate value="2023-09-29T16:03:48"&gt;&lt;/lastupdate&gt;&lt;/current&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D18" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E18" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">_xll.Exlibris.JSON.JSONObject(E14)</f>
-        <v>Newtonsoft.Json.Linq.JObject:BFEAE654-9F48-425C-A884-B0028C8410AA</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>Newtonsoft.Json.Linq.JObject:44915A60-4DE4-4B3B-B50A-E35C295AC0CF</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D19" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D20" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="D20:E54" ca="1">_xll.Exlibris.JSON.Values(E18)</f>
         <v>$.?xml.@version</v>
@@ -2344,7 +1758,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D21" s="16" t="str">
         <f ca="1"/>
         <v>$.?xml.@encoding</v>
@@ -2354,7 +1768,7 @@
         <v>UTF-8</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D22" s="16" t="str">
         <f ca="1"/>
         <v>$.current.city.@id</v>
@@ -2364,7 +1778,7 @@
         <v>2643743</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D23" s="16" t="str">
         <f ca="1"/>
         <v>$.current.city.@name</v>
@@ -2374,7 +1788,7 @@
         <v>London</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D24" s="16" t="str">
         <f ca="1"/>
         <v>$.current.city.coord.@lon</v>
@@ -2384,7 +1798,7 @@
         <v>-0.1257</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D25" s="16" t="str">
         <f ca="1"/>
         <v>$.current.city.coord.@lat</v>
@@ -2394,7 +1808,7 @@
         <v>51.5085</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D26" s="16" t="str">
         <f ca="1"/>
         <v>$.current.city.country</v>
@@ -2404,7 +1818,7 @@
         <v>GB</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D27" s="16" t="str">
         <f ca="1"/>
         <v>$.current.city.timezone</v>
@@ -2414,57 +1828,57 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D28" s="16" t="str">
         <f ca="1"/>
         <v>$.current.city.sun.@rise</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>45027.218159722222</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>45198.247974537036</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D29" s="16" t="str">
         <f ca="1"/>
         <v>$.current.city.sun.@set</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>45027.783819444441</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>45198.739398148151</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D30" s="16" t="str">
         <f ca="1"/>
         <v>$.current.temperature.@value</v>
       </c>
       <c r="E30" t="str">
         <f ca="1"/>
-        <v>281.53</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>292.36</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D31" s="16" t="str">
         <f ca="1"/>
         <v>$.current.temperature.@min</v>
       </c>
       <c r="E31" t="str">
         <f ca="1"/>
-        <v>280.4</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>290.62</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D32" s="16" t="str">
         <f ca="1"/>
         <v>$.current.temperature.@max</v>
       </c>
       <c r="E32" t="str">
         <f ca="1"/>
-        <v>282.31</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>293.35</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D33" s="16" t="str">
         <f ca="1"/>
         <v>$.current.temperature.@unit</v>
@@ -2474,17 +1888,17 @@
         <v>kelvin</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D34" s="16" t="str">
         <f ca="1"/>
         <v>$.current.feels_like.@value</v>
       </c>
       <c r="E34" t="str">
         <f ca="1"/>
-        <v>278.46</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>291.8</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D35" s="16" t="str">
         <f ca="1"/>
         <v>$.current.feels_like.@unit</v>
@@ -2494,17 +1908,17 @@
         <v>kelvin</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D36" s="16" t="str">
         <f ca="1"/>
         <v>$.current.humidity.@value</v>
       </c>
       <c r="E36" t="str">
         <f ca="1"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D37" s="16" t="str">
         <f ca="1"/>
         <v>$.current.humidity.@unit</v>
@@ -2514,17 +1928,17 @@
         <v>%</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D38" s="16" t="str">
         <f ca="1"/>
         <v>$.current.pressure.@value</v>
       </c>
       <c r="E38" t="str">
         <f ca="1"/>
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D39" s="16" t="str">
         <f ca="1"/>
         <v>$.current.pressure.@unit</v>
@@ -2534,7 +1948,7 @@
         <v>hPa</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D40" s="16" t="str">
         <f ca="1"/>
         <v>$.current.wind.speed.@value</v>
@@ -2544,7 +1958,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D41" s="16" t="str">
         <f ca="1"/>
         <v>$.current.wind.speed.@unit</v>
@@ -2554,7 +1968,7 @@
         <v>m/s</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D42" s="16" t="str">
         <f ca="1"/>
         <v>$.current.wind.speed.@name</v>
@@ -2564,7 +1978,7 @@
         <v>Moderate breeze</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D43" s="16" t="str">
         <f ca="1"/>
         <v>$.current.wind.gusts</v>
@@ -2574,47 +1988,47 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D44" s="16" t="str">
         <f ca="1"/>
         <v>$.current.wind.direction.@value</v>
       </c>
       <c r="E44" t="str">
         <f ca="1"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D45" s="16" t="str">
         <f ca="1"/>
         <v>$.current.wind.direction.@code</v>
       </c>
       <c r="E45" t="str">
         <f ca="1"/>
-        <v>WSW</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>W</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D46" s="16" t="str">
         <f ca="1"/>
         <v>$.current.wind.direction.@name</v>
       </c>
       <c r="E46" t="str">
         <f ca="1"/>
-        <v>West-southwest</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>West</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D47" s="16" t="str">
         <f ca="1"/>
         <v>$.current.clouds.@value</v>
       </c>
       <c r="E47" t="str">
         <f ca="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D48" s="16" t="str">
         <f ca="1"/>
         <v>$.current.clouds.@name</v>
@@ -2624,7 +2038,7 @@
         <v>few clouds</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D49" s="16" t="str">
         <f ca="1"/>
         <v>$.current.visibility.@value</v>
@@ -2634,7 +2048,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D50" s="16" t="str">
         <f ca="1"/>
         <v>$.current.precipitation.@mode</v>
@@ -2644,7 +2058,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D51" s="16" t="str">
         <f ca="1"/>
         <v>$.current.weather.@number</v>
@@ -2654,7 +2068,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D52" s="16" t="str">
         <f ca="1"/>
         <v>$.current.weather.@value</v>
@@ -2664,24 +2078,24 @@
         <v>few clouds</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D53" s="16" t="str">
         <f ca="1"/>
         <v>$.current.weather.@icon</v>
       </c>
       <c r="E53" t="str">
         <f ca="1"/>
-        <v>02n</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>02d</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D54" s="16" t="str">
         <f ca="1"/>
         <v>$.current.lastupdate.@value</v>
       </c>
       <c r="E54">
         <f ca="1"/>
-        <v>45026.975983796299</v>
+        <v>45198.669305555559</v>
       </c>
     </row>
   </sheetData>
@@ -2704,23 +2118,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FD5298-4E88-478C-B471-EEF8C3AEE919}">
   <dimension ref="A2:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
     <col min="4" max="4" width="26.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
-    <col min="6" max="6" width="20.4140625" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -2730,16 +2144,16 @@
         <v>2.11 POST - form data</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -2749,91 +2163,91 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D6" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D7" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E7" t="str">
         <f ca="1">FILE_DIR&amp;"deepl-api-key.txt"</f>
-        <v>D:\data\git\exlibris\samples\deepl-api-key.txt</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>D:\mugenfugafuga\git\exlibris\samples\deepl-api-key.txt</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D9" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D10" s="11"/>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F10" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
-        <v>System.String:7C3CEAFC-812E-4807-B38B-5576B862DB98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>System.String:6A40F6FE-A0E0-4D56-A60D-F6EFB860E260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D12" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D13" s="11"/>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D16" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">_xll.Exlibris.WebAPI.POST(E6,E12:F13,,E9:F10)</f>
-        <v>Newtonsoft.Json.Linq.JObject:CAA2E79B-4874-43A0-995C-F1B21912BFE2</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+        <v>Newtonsoft.Json.Linq.JObject:7214E1E5-FCC3-4C8A-8726-45D0F48B05E8</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D18" s="11" t="s">
         <v>8</v>
       </c>
@@ -2841,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D19" t="str" cm="1">
         <f t="array" aca="1" ref="D19:E20" ca="1">_xll.Exlibris.JSON.Values(E16)</f>
         <v>$.translations[0].detected_source_language</v>
@@ -2854,10 +2268,10 @@
         <v>EN</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I19" t="b">
         <f ca="1">D19=F19</f>
@@ -2868,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D20" s="15" t="str">
         <f ca="1"/>
         <v>$.translations[0].text</v>
@@ -2878,10 +2292,10 @@
         <v>Hallo Welt!</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I20" t="b">
         <f t="shared" ref="I20" ca="1" si="1">D20=F20</f>
@@ -2892,116 +2306,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D24" s="16"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D25" s="16"/>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D28" s="16"/>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D29" s="16"/>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D30" s="16"/>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D31" s="16"/>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D32" s="16"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D34" s="16"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D35" s="16"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D36" s="16"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D37" s="16"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D38" s="16"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D39" s="16"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D40" s="16"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D41" s="16"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D42" s="16"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D43" s="16"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D47" s="16"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D48" s="16"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D49" s="16"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D50" s="16"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D51" s="16"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D52" s="16"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D53" s="16"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D54" s="16"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D55" s="16"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D56" s="16"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D57" s="16"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D58" s="16"/>
     </row>
   </sheetData>
@@ -3024,23 +2438,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCC5ED3-C336-4B8D-AA2B-04FC00C3192F}">
-  <dimension ref="B2:I33"/>
+  <dimension ref="B2:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="66.9140625" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="66.875" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -3049,7 +2463,7 @@
         <v>2.99 misc</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
@@ -3057,7 +2471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
@@ -3066,7 +2480,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
@@ -3077,218 +2491,202 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.Exlibris.Utility.Objects.Count(_xll.Exlibris.Utility.TimeAtInterval())</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" t="b">
         <f>E7=G7</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D10" t="str" cm="1">
-        <f t="array" ref="D10:E33">_xll.Exlibris.Utility.Objects.Handles(_xll.Exlibris.Utility.TimeAtInterval())</f>
-        <v>Newtonsoft.Json.Linq.JObject:F719CC8E-22CD-44A6-9ED8-737984406CF8</v>
+        <f t="array" ref="D10:E31">_xll.Exlibris.Utility.Objects.Handles(_xll.Exlibris.Utility.TimeAtInterval())</f>
+        <v>Newtonsoft.Json.Linq.JObject:AB10D51D-C75B-43A6-AEA9-EB5DDBB37662</v>
       </c>
       <c r="E10" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!E27:E27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+        <v>[2.webapi-sample-and-test.xlsx]2.2 POST!E9:E9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D11" t="str">
-        <v>System.String:7C3CEAFC-812E-4807-B38B-5576B862DB98</v>
+        <v>System.String:FE74CC50-27CF-45E1-88B5-BEE063311324</v>
       </c>
       <c r="E11" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!F9:F9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D12" t="str">
+        <v>Newtonsoft.Json.Linq.JObject:7214E1E5-FCC3-4C8A-8726-45D0F48B05E8</v>
+      </c>
+      <c r="E12" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.11 POST - form data!E16:E16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D13" t="str">
+        <v>Newtonsoft.Json.Linq.JObject:FEF75C3F-9C44-4FA3-8AD8-97422621943D</v>
+      </c>
+      <c r="E13" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.7 Bearer!E12:E12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D14" t="str">
+        <v>System.String:7A9DE38B-E498-41C8-8342-AB2E480BE6B7</v>
+      </c>
+      <c r="E14" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.7 Bearer!F9:F9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D15" t="str">
+        <v>System.String:A85F2899-6AD6-413A-A66E-CD90B7756F4C</v>
+      </c>
+      <c r="E15" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!F10:F10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D16" t="str">
+        <v>Newtonsoft.Json.Linq.JObject:9DC63BDB-6E70-4774-BD22-0F1627A8E8A8</v>
+      </c>
+      <c r="E16" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E14:E14</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D17" t="str">
+        <v>System.String:6A40F6FE-A0E0-4D56-A60D-F6EFB860E260</v>
+      </c>
+      <c r="E17" t="str">
         <v>[2.webapi-sample-and-test.xlsx]2.11 POST - form data!F10:F10</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:5537E037-23BC-462D-AAED-54E41F0537ED</v>
-      </c>
-      <c r="E12" t="str">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D18" t="str">
+        <v>System.Net.Http.HttpClient:7998C5B2-10D4-4FC0-A408-E4A7F93FEB1A</v>
+      </c>
+      <c r="E18" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E12:E12</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D19" t="str">
+        <v>System.String:3FB11391-40A2-45E9-AAE6-B24D3E65F95C</v>
+      </c>
+      <c r="E19" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!E25:E25</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D20" t="str">
+        <v>System.String:C4E5E94A-9072-4ACA-BCD8-DC7F0B0208F3</v>
+      </c>
+      <c r="E20" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E12:E12</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D21" t="str">
+        <v>Newtonsoft.Json.Linq.JObject:6E8A2942-3E00-4152-91E5-D7808DE435D2</v>
+      </c>
+      <c r="E21" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.3 PUT!E9:E9</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D22" t="str">
+        <v>Newtonsoft.Json.Linq.JObject:DC9D7085-2D57-4CB1-9A1B-BF534C30039B</v>
+      </c>
+      <c r="E22" t="str">
         <v>[2.webapi-sample-and-test.xlsx]2.3 PUT!E12:E12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:1C89B920-0472-486F-A722-631474D31736</v>
-      </c>
-      <c r="E13" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.6 POST with Header!E15:E15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:BFEAE654-9F48-425C-A884-B0028C8410AA</v>
-      </c>
-      <c r="E14" t="str">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D23" t="str">
+        <v>System.String:742EB824-0E08-497C-9FB7-882AD3301027</v>
+      </c>
+      <c r="E23" t="str">
+        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!F23:F23</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D24" t="str">
+        <v>Newtonsoft.Json.Linq.JObject:44915A60-4DE4-4B3B-B50A-E35C295AC0CF</v>
+      </c>
+      <c r="E24" t="str">
         <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E18:E18</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:ECAD67FA-0B91-4797-AD78-28351726930C</v>
-      </c>
-      <c r="E15" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E14:E14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16" t="str">
-        <v>System.Xml.XmlDocument:F48CA097-D9F6-4AE3-93C0-AFBE76F81577</v>
-      </c>
-      <c r="E16" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E14:E14</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:4D44B4A6-A60E-47F3-86BB-3A500DAC6347</v>
-      </c>
-      <c r="E17" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.1 GET!E9:E9</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:CE0E6809-22B2-4D9A-BB23-E2D9B6998BDF</v>
-      </c>
-      <c r="E18" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.4 DELETE!E9:E9</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:B80667F7-DB0F-4C82-9A40-29AAF5B6E140</v>
-      </c>
-      <c r="E19" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.7 Bearer!E12:E12</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:CAA2E79B-4874-43A0-995C-F1B21912BFE2</v>
-      </c>
-      <c r="E20" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.11 POST - form data!E16:E16</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" t="str">
-        <v>System.String:0DA5BCB4-82FF-4B2D-B39C-8E37E2423919</v>
-      </c>
-      <c r="E21" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E12:E12</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:E5B21026-8017-4509-AB67-E54B2FA4E15D</v>
-      </c>
-      <c r="E22" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.3 PUT!E9:E9</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:5D77078F-BE90-472F-9D24-AF69621116A2</v>
-      </c>
-      <c r="E23" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.5 PATCH!E15:E15</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" t="str">
-        <v>System.String:0B437516-8831-4260-A023-802639C0CC65</v>
-      </c>
-      <c r="E24" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!F9:F9</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D25" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:7D412203-CC5E-4776-97C6-E66674717EBA</v>
+        <v>Newtonsoft.Json.Linq.JObject:C8090231-4055-4B21-A04E-6E23D1709524</v>
       </c>
       <c r="E25" t="str">
         <v>[2.webapi-sample-and-test.xlsx]2.2 POST!E12:E12</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D26" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:B281AA74-2FEC-4C5F-88F6-2A0831B456C0</v>
+        <v>Newtonsoft.Json.Linq.JObject:7AE874FF-A72C-4F48-AC0D-B4D04180E10C</v>
       </c>
       <c r="E26" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.5 PATCH!E9:E9</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>[2.webapi-sample-and-test.xlsx]2.4 DELETE!E9:E9</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D27" t="str">
-        <v>System.String:42E33E7A-FD67-475B-9270-FD355A8A72E0</v>
+        <v>Newtonsoft.Json.Linq.JObject:EE6FFD6F-8923-40EB-936B-57D4A6732BA3</v>
       </c>
       <c r="E27" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!E25:E25</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!E27:E27</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D28" t="str">
-        <v>System.Net.Http.HttpClient:05784FB1-9FB4-4035-867E-F3E759A9AAB1</v>
+        <v>System.Xml.XmlDocument:905460BF-4372-418D-8D8B-95C9A365AA41</v>
       </c>
       <c r="E28" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E12:E12</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E14:E14</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D29" t="str">
-        <v>System.String:2EAC5BA7-2776-456F-8778-66C6D87C579C</v>
+        <v>Newtonsoft.Json.Linq.JObject:B459A194-A51C-4A51-A216-60366EAAB628</v>
       </c>
       <c r="E29" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!F10:F10</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>[2.webapi-sample-and-test.xlsx]2.1 GET!E9:E9</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D30" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:D69FE789-A938-473B-9421-ADD9797EB54C</v>
+        <v>Newtonsoft.Json.Linq.JObject:FFE26974-CA13-49E7-843B-C52AAC22B6E6</v>
       </c>
       <c r="E30" t="str">
         <v>[2.webapi-sample-and-test.xlsx]2.6 POST with Header!E9:E9</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D31" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:6BEB260E-4EBB-4C3A-9E14-5FBED3222F2F</v>
+        <v>Newtonsoft.Json.Linq.JObject:D78C652E-10D5-4BF4-AF63-725EB66EC07D</v>
       </c>
       <c r="E31" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.2 POST!E9:E9</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D32" t="str">
-        <v>System.String:8A52600B-62E5-4B68-A711-D53820B8A0EC</v>
-      </c>
-      <c r="E32" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.7 Bearer!F9:F9</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" t="str">
-        <v>System.String:002A0011-DB61-4042-BEE3-62896FC18161</v>
-      </c>
-      <c r="E33" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!F23:F23</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.6 POST with Header!E15:E15</v>
       </c>
     </row>
   </sheetData>
@@ -3314,15 +2712,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -3332,7 +2730,7 @@
         <v>2.1 GET</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
@@ -3341,7 +2739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -3351,7 +2749,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
@@ -3359,7 +2757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
@@ -3367,16 +2765,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.WebAPI.GET(E6)</f>
-        <v>Newtonsoft.Json.Linq.JObject:4D44B4A6-A60E-47F3-86BB-3A500DAC6347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>Newtonsoft.Json.Linq.JObject:B459A194-A51C-4A51-A216-60366EAAB628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D11" s="11" t="s">
         <v>27</v>
       </c>
@@ -3388,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E12" t="str">
         <v>$.id</v>
       </c>
@@ -3396,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E13" t="str">
         <v>$.title</v>
       </c>
@@ -3404,7 +2802,7 @@
         <v>delectus aut autem</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E14" t="str">
         <v>$.completed</v>
       </c>
@@ -3412,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
         <v>19</v>
       </c>
@@ -3421,7 +2819,7 @@
         <v>OK(200)</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>20</v>
       </c>
@@ -3432,7 +2830,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B4 C4">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3450,15 +2848,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -3468,7 +2866,7 @@
         <v>2.2 POST</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
@@ -3477,7 +2875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -3487,7 +2885,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
@@ -3495,7 +2893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
@@ -3503,16 +2901,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.JSON.JSONObject(E7)</f>
-        <v>Newtonsoft.Json.Linq.JObject:6BEB260E-4EBB-4C3A-9E14-5FBED3222F2F</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>Newtonsoft.Json.Linq.JObject:AB10D51D-C75B-43A6-AEA9-EB5DDBB37662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
@@ -3520,16 +2918,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" ref="E12">_xll.Exlibris.WebAPI.POST(E6,E9)</f>
-        <v>Newtonsoft.Json.Linq.JObject:7D412203-CC5E-4776-97C6-E66674717EBA</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>Newtonsoft.Json.Linq.JObject:C8090231-4055-4B21-A04E-6E23D1709524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D14" s="11" t="s">
         <v>27</v>
       </c>
@@ -3541,7 +2939,7 @@
         <v>foo</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D15" s="11"/>
       <c r="E15" t="str">
         <v>$.body</v>
@@ -3550,7 +2948,7 @@
         <v>bar</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D16" s="11"/>
       <c r="E16" t="str">
         <v>$.userId</v>
@@ -3559,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D17" s="11"/>
       <c r="E17" t="str">
         <v>$.id</v>
@@ -3568,7 +2966,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
         <v>19</v>
       </c>
@@ -3577,7 +2975,7 @@
         <v>Created(201)</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
         <v>20</v>
       </c>
@@ -3588,12 +2986,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3611,15 +3009,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -3629,7 +3027,7 @@
         <v>2.3 PUT</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
@@ -3638,7 +3036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -3648,7 +3046,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
@@ -3656,7 +3054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
@@ -3664,16 +3062,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.JSON.JSONObject(E7)</f>
-        <v>Newtonsoft.Json.Linq.JObject:E5B21026-8017-4509-AB67-E54B2FA4E15D</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>Newtonsoft.Json.Linq.JObject:6E8A2942-3E00-4152-91E5-D7808DE435D2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
@@ -3681,16 +3079,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" ref="E12">_xll.Exlibris.WebAPI.PUT(E6,E9)</f>
-        <v>Newtonsoft.Json.Linq.JObject:5537E037-23BC-462D-AAED-54E41F0537ED</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>Newtonsoft.Json.Linq.JObject:DC9D7085-2D57-4CB1-9A1B-BF534C30039B</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D14" s="11" t="s">
         <v>27</v>
       </c>
@@ -3702,7 +3100,7 @@
         <v>foo</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D15" s="11"/>
       <c r="E15" t="str">
         <v>$.body</v>
@@ -3711,7 +3109,7 @@
         <v>bar</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D16" s="11"/>
       <c r="E16" t="str">
         <v>$.userId</v>
@@ -3720,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D17" s="11"/>
       <c r="E17" t="str">
         <v>$.id</v>
@@ -3729,7 +3127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
         <v>19</v>
       </c>
@@ -3738,7 +3136,7 @@
         <v>OK(200)</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
         <v>20</v>
       </c>
@@ -3749,7 +3147,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B4 C4">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3767,15 +3165,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -3785,7 +3183,7 @@
         <v>2.4 DELETE</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
@@ -3794,7 +3192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -3804,7 +3202,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
@@ -3812,7 +3210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
@@ -3820,16 +3218,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.WebAPI.DELETE(E6)</f>
-        <v>Newtonsoft.Json.Linq.JObject:CE0E6809-22B2-4D9A-BB23-E2D9B6998BDF</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>Newtonsoft.Json.Linq.JObject:7AE874FF-A72C-4F48-AC0D-B4D04180E10C</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>19</v>
       </c>
@@ -3838,7 +3236,7 @@
         <v>OK(200)</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>20</v>
       </c>
@@ -3849,7 +3247,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B4 C4">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3862,205 +3260,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED71C98-1BA6-4C75-A41B-F2112105E6E4}">
-  <dimension ref="A2:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13"/>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="str" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">MID(CELL("filename",B4),FIND("]",CELL("filename",B4))+1,255)</f>
-        <v>2.5 PATCH</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13"/>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13"/>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13" t="str">
-        <f>IF(E23=E22,"OK","NG")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="str" cm="1">
-        <f t="array" ref="E9">_xll.Exlibris.JSON.JSONObject(E7)</f>
-        <v>Newtonsoft.Json.Linq.JObject:B281AA74-2FEC-4C5F-88F6-2A0831B456C0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="str" cm="1">
-        <f t="array" ref="E15">_xll.Exlibris.WebAPI.PATCH(E6,E9)</f>
-        <v>Newtonsoft.Json.Linq.JObject:5D77078F-BE90-472F-9D24-AF69621116A2</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="str" cm="1">
-        <f t="array" ref="E17:F20">_xll.Exlibris.JSON.Values(E15,,TRUE)</f>
-        <v>$.userId</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="11"/>
-      <c r="E18" t="str">
-        <v>$.id</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="11"/>
-      <c r="E19" t="str">
-        <v>$.title</v>
-      </c>
-      <c r="F19" t="str">
-        <v>foo</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="11"/>
-      <c r="E20" t="str">
-        <v>$.body</v>
-      </c>
-      <c r="F20" t="str">
-        <v>quia et suscipit
-suscipit recusandae consequuntur expedita et cum
-reprehenderit molestiae ut ut quas totam
-nostrum rerum est autem sunt rem eveniet architecto</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="str" cm="1">
-        <f t="array" ref="E22">_xll.Exlibris.WebAPI.Status(E15)</f>
-        <v>OK(200)</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{7D0659E5-0FCE-4CD4-80E5-924B48850047}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A3458D-D920-450F-82D9-BFEBB2B0A5DB}">
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.4140625" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -4070,16 +3284,16 @@
         <v>2.6 POST with Header</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -4089,51 +3303,51 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.JSON.JSONObject(E7)</f>
-        <v>Newtonsoft.Json.Linq.JObject:D69FE789-A938-473B-9421-ADD9797EB54C</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>Newtonsoft.Json.Linq.JObject:FFE26974-CA13-49E7-843B-C52AAC22B6E6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D11" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D14" s="11" t="s">
         <v>14</v>
       </c>
@@ -4141,16 +3355,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D15" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="str" cm="1">
         <f t="array" ref="E15">_xll.Exlibris.WebAPI.POST(E6,E9,,E11:F12)</f>
-        <v>Newtonsoft.Json.Linq.JObject:1C89B920-0472-486F-A722-631474D31736</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+        <v>Newtonsoft.Json.Linq.JObject:D78C652E-10D5-4BF4-AF63-725EB66EC07D</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D17" s="11" t="s">
         <v>27</v>
       </c>
@@ -4159,10 +3373,10 @@
         <v>$.bookingid</v>
       </c>
       <c r="F17">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D18" s="11"/>
       <c r="E18" t="str">
         <v>$.booking.firstname</v>
@@ -4171,7 +3385,7 @@
         <v>Jim</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D19" s="11"/>
       <c r="E19" t="str">
         <v>$.booking.lastname</v>
@@ -4180,7 +3394,7 @@
         <v>Brown</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D20" s="11"/>
       <c r="E20" t="str">
         <v>$.booking.totalprice</v>
@@ -4189,7 +3403,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E21" t="str">
         <v>$.booking.depositpaid</v>
       </c>
@@ -4197,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E22" t="str">
         <v>$.booking.bookingdates.checkin</v>
       </c>
@@ -4205,7 +3419,7 @@
         <v>2018-01-01</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E23" t="str">
         <v>$.booking.bookingdates.checkout</v>
       </c>
@@ -4213,7 +3427,7 @@
         <v>2019-01-01</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E24" t="str">
         <v>$.booking.additionalneeds</v>
       </c>
@@ -4221,7 +3435,7 @@
         <v>Breakfast</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
         <v>19</v>
       </c>
@@ -4230,7 +3444,7 @@
         <v>OK(200)</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D27" t="s">
         <v>20</v>
       </c>
@@ -4258,22 +3472,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C032EF-2561-4D27-8ECD-05197219C1CF}">
   <dimension ref="A2:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.9140625" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -4283,16 +3497,16 @@
         <v>2.7 Bearer</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -4302,40 +3516,40 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D7" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E7" t="str">
         <f ca="1">FILE_DIR&amp;"git-access-token.txt"</f>
-        <v>D:\data\git\exlibris\samples\git-access-token.txt</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>D:\mugenfugafuga\git\exlibris\samples\git-access-token.txt</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D8" s="11"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D9" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F9" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
-        <v>System.String:8A52600B-62E5-4B68-A711-D53820B8A0EC</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>System.String:7A9DE38B-E498-41C8-8342-AB2E480BE6B7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
@@ -4343,16 +3557,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_xll.Exlibris.WebAPI.GET(E6,E9:F9)</f>
-        <v>Newtonsoft.Json.Linq.JObject:B80667F7-DB0F-4C82-9A40-29AAF5B6E140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>Newtonsoft.Json.Linq.JObject:FEF75C3F-9C44-4FA3-8AD8-97422621943D</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>19</v>
       </c>
@@ -4361,7 +3575,7 @@
         <v>OK(200)</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>20</v>
       </c>
@@ -4369,7 +3583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D17" s="11" t="s">
         <v>27</v>
       </c>
@@ -4382,7 +3596,7 @@
         <v>mugenfugafuga</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D18" s="11"/>
       <c r="E18" t="str">
         <f ca="1"/>
@@ -4393,7 +3607,7 @@
         <v>52103142</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D19" s="11"/>
       <c r="E19" t="str">
         <f ca="1"/>
@@ -4404,7 +3618,7 @@
         <v>MDQ6VXNlcjUyMTAzMTQy</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D20" s="11"/>
       <c r="E20" t="str">
         <f ca="1"/>
@@ -4415,7 +3629,7 @@
         <v>https://avatars.githubusercontent.com/u/52103142?v=4</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E21" t="str">
         <f ca="1"/>
         <v>$.gravatar_id</v>
@@ -4425,7 +3639,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E22" t="str">
         <f ca="1"/>
         <v>$.url</v>
@@ -4435,7 +3649,7 @@
         <v>https://api.github.com/users/mugenfugafuga</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E23" t="str">
         <f ca="1"/>
         <v>$.html_url</v>
@@ -4445,7 +3659,7 @@
         <v>https://github.com/mugenfugafuga</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E24" t="str">
         <f ca="1"/>
         <v>$.followers_url</v>
@@ -4455,7 +3669,7 @@
         <v>https://api.github.com/users/mugenfugafuga/followers</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E25" t="str">
         <f ca="1"/>
         <v>$.following_url</v>
@@ -4465,7 +3679,7 @@
         <v>https://api.github.com/users/mugenfugafuga/following{/other_user}</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E26" t="str">
         <f ca="1"/>
         <v>$.gists_url</v>
@@ -4475,7 +3689,7 @@
         <v>https://api.github.com/users/mugenfugafuga/gists{/gist_id}</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E27" t="str">
         <f ca="1"/>
         <v>$.starred_url</v>
@@ -4485,7 +3699,7 @@
         <v>https://api.github.com/users/mugenfugafuga/starred{/owner}{/repo}</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E28" t="str">
         <f ca="1"/>
         <v>$.subscriptions_url</v>
@@ -4495,7 +3709,7 @@
         <v>https://api.github.com/users/mugenfugafuga/subscriptions</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E29" t="str">
         <f ca="1"/>
         <v>$.organizations_url</v>
@@ -4505,7 +3719,7 @@
         <v>https://api.github.com/users/mugenfugafuga/orgs</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E30" t="str">
         <f ca="1"/>
         <v>$.repos_url</v>
@@ -4515,7 +3729,7 @@
         <v>https://api.github.com/users/mugenfugafuga/repos</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E31" t="str">
         <f ca="1"/>
         <v>$.events_url</v>
@@ -4525,7 +3739,7 @@
         <v>https://api.github.com/users/mugenfugafuga/events{/privacy}</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E32" t="str">
         <f ca="1"/>
         <v>$.received_events_url</v>
@@ -4535,7 +3749,7 @@
         <v>https://api.github.com/users/mugenfugafuga/received_events</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E33" t="str">
         <f ca="1"/>
         <v>$.type</v>
@@ -4545,7 +3759,7 @@
         <v>User</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E34" t="str">
         <f ca="1"/>
         <v>$.site_admin</v>
@@ -4555,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E35" t="str">
         <f ca="1"/>
         <v>$.name</v>
@@ -4565,7 +3779,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E36" t="str">
         <f ca="1"/>
         <v>$.company</v>
@@ -4575,7 +3789,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E37" t="str">
         <f ca="1"/>
         <v>$.blog</v>
@@ -4585,7 +3799,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E38" t="str">
         <f ca="1"/>
         <v>$.location</v>
@@ -4595,7 +3809,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E39" t="str">
         <f ca="1"/>
         <v>$.email</v>
@@ -4605,7 +3819,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E40" t="str">
         <f ca="1"/>
         <v>$.hireable</v>
@@ -4615,7 +3829,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E41" t="str">
         <f ca="1"/>
         <v>$.bio</v>
@@ -4625,7 +3839,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E42" t="str">
         <f ca="1"/>
         <v>$.twitter_username</v>
@@ -4635,17 +3849,17 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E43" t="str">
         <f ca="1"/>
         <v>$.public_repos</v>
       </c>
       <c r="F43">
         <f ca="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E44" t="str">
         <f ca="1"/>
         <v>$.public_gists</v>
@@ -4655,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E45" t="str">
         <f ca="1"/>
         <v>$.followers</v>
@@ -4665,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E46" t="str">
         <f ca="1"/>
         <v>$.following</v>
@@ -4675,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E47" t="str">
         <f ca="1"/>
         <v>$.created_at</v>
@@ -4685,7 +3899,7 @@
         <v>43638.51152777778</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E48" t="str">
         <f ca="1"/>
         <v>$.updated_at</v>
@@ -4712,23 +3926,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC357EE-7302-46AF-A87F-0D2E2370165F}">
   <dimension ref="A2:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
     <col min="4" max="4" width="26.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
-    <col min="6" max="6" width="20.4140625" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -4738,16 +3952,16 @@
         <v>2.8 URL params</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -4757,48 +3971,48 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D8" s="11"/>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D9" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D12" s="11" t="s">
         <v>13</v>
       </c>
@@ -4807,7 +4021,7 @@
         <v>http://api.openweathermap.org/data/2.5/weather?q=London%2cuk&amp;APPID=_your_openweathermap_appid_</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>19</v>
       </c>
@@ -4816,81 +4030,81 @@
         <v>http://api.openweathermap.org/data/2.5/weather?q=London%2cuk&amp;APPID=_your_openweathermap_appid_</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D17" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D19" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E19" t="str">
         <f ca="1">FILE_DIR&amp;"openweathermap-appid.txt"</f>
-        <v>D:\data\git\exlibris\samples\openweathermap-appid.txt</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+        <v>D:\mugenfugafuga\git\exlibris\samples\openweathermap-appid.txt</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D23" s="11"/>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F23" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">_xll.Exlibris.Utility.LoadText(E19)</f>
-        <v>System.String:002A0011-DB61-4042-BEE3-62896FC18161</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+        <v>System.String:742EB824-0E08-497C-9FB7-882AD3301027</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D25" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E25" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">_xll.Exlibris.WebAPI.URL(E21,E22:F23,TRUE)</f>
-        <v>System.String:42E33E7A-FD67-475B-9270-FD355A8A72E0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+        <v>System.String:3FB11391-40A2-45E9-AAE6-B24D3E65F95C</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D27" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E27" t="str" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">_xll.Exlibris.WebAPI.GET(E25)</f>
-        <v>Newtonsoft.Json.Linq.JObject:F719CC8E-22CD-44A6-9ED8-737984406CF8</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+        <v>Newtonsoft.Json.Linq.JObject:EE6FFD6F-8923-40EB-936B-57D4A6732BA3</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D29" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E29" t="str" cm="1">
         <f t="array" aca="1" ref="E29:F55" ca="1">_xll.Exlibris.JSON.Values(E27)</f>
@@ -4901,7 +4115,7 @@
         <v>-0.12570000000000001</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E30" t="str">
         <f ca="1"/>
         <v>$.coord.lat</v>
@@ -4911,7 +4125,7 @@
         <v>51.508499999999998</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E31" t="str">
         <f ca="1"/>
         <v>$.weather[0].id</v>
@@ -4921,7 +4135,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E32" t="str">
         <f ca="1"/>
         <v>$.weather[0].main</v>
@@ -4931,7 +4145,7 @@
         <v>Clouds</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E33" t="str">
         <f ca="1"/>
         <v>$.weather[0].description</v>
@@ -4941,17 +4155,17 @@
         <v>few clouds</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E34" t="str">
         <f ca="1"/>
         <v>$.weather[0].icon</v>
       </c>
       <c r="F34" t="str">
         <f ca="1"/>
-        <v>02n</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+        <v>02d</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E35" t="str">
         <f ca="1"/>
         <v>$.base</v>
@@ -4961,67 +4175,67 @@
         <v>stations</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E36" t="str">
         <f ca="1"/>
         <v>$.main.temp</v>
       </c>
       <c r="F36">
         <f ca="1"/>
-        <v>281.52999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+        <v>292.36</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E37" t="str">
         <f ca="1"/>
         <v>$.main.feels_like</v>
       </c>
       <c r="F37">
         <f ca="1"/>
-        <v>278.45999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+        <v>291.8</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E38" t="str">
         <f ca="1"/>
         <v>$.main.temp_min</v>
       </c>
       <c r="F38">
         <f ca="1"/>
-        <v>280.39999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+        <v>290.62</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E39" t="str">
         <f ca="1"/>
         <v>$.main.temp_max</v>
       </c>
       <c r="F39">
         <f ca="1"/>
-        <v>282.31</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+        <v>293.35000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E40" t="str">
         <f ca="1"/>
         <v>$.main.pressure</v>
       </c>
       <c r="F40">
         <f ca="1"/>
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E41" t="str">
         <f ca="1"/>
         <v>$.main.humidity</v>
       </c>
       <c r="F41">
         <f ca="1"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E42" t="str">
         <f ca="1"/>
         <v>$.visibility</v>
@@ -5031,7 +4245,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E43" t="str">
         <f ca="1"/>
         <v>$.wind.speed</v>
@@ -5041,37 +4255,37 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E44" t="str">
         <f ca="1"/>
         <v>$.wind.deg</v>
       </c>
       <c r="F44">
         <f ca="1"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E45" t="str">
         <f ca="1"/>
         <v>$.clouds.all</v>
       </c>
       <c r="F45">
         <f ca="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E46" t="str">
         <f ca="1"/>
         <v>$.dt</v>
       </c>
       <c r="F46">
         <f ca="1"/>
-        <v>1681169125</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1696003428</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E47" t="str">
         <f ca="1"/>
         <v>$.sys.type</v>
@@ -5081,17 +4295,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E48" t="str">
         <f ca="1"/>
         <v>$.sys.id</v>
       </c>
       <c r="F48">
         <f ca="1"/>
-        <v>2075535</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+        <v>268730</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E49" t="str">
         <f ca="1"/>
         <v>$.sys.country</v>
@@ -5101,27 +4315,27 @@
         <v>GB</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E50" t="str">
         <f ca="1"/>
         <v>$.sys.sunrise</v>
       </c>
       <c r="F50">
         <f ca="1"/>
-        <v>1681190049</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1695967025</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E51" t="str">
         <f ca="1"/>
         <v>$.sys.sunset</v>
       </c>
       <c r="F51">
         <f ca="1"/>
-        <v>1681238922</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1696009484</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E52" t="str">
         <f ca="1"/>
         <v>$.timezone</v>
@@ -5131,7 +4345,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E53" t="str">
         <f ca="1"/>
         <v>$.id</v>
@@ -5141,7 +4355,7 @@
         <v>2643743</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E54" t="str">
         <f ca="1"/>
         <v>$.name</v>
@@ -5151,7 +4365,7 @@
         <v>London</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E55" t="str">
         <f ca="1"/>
         <v>$.cod</v>
@@ -5180,4 +4394,470 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D63759A-8A67-483D-B868-DA66E1017A99}">
+  <dimension ref="A2:F50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="13"/>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">MID(CELL("filename",B4),FIND("]",CELL("filename",B4))+1,255)</f>
+        <v>2.9 HttpClient</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="13"/>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13" t="str">
+        <f ca="1">IF(E17=E16,"OK","NG")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="str">
+        <f ca="1">FILE_DIR&amp;"git-access-token.txt"</f>
+        <v>D:\mugenfugafuga\git\exlibris\samples\git-access-token.txt</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D8" s="11"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="str" cm="1">
+        <f t="array" aca="1" ref="F9" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
+        <v>System.String:FE74CC50-27CF-45E1-88B5-BEE063311324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="str" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">_xll.Exlibris.WebAPI.Client(E9:F9)</f>
+        <v>System.Net.Http.HttpClient:7998C5B2-10D4-4FC0-A408-E4A7F93FEB1A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="str" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">_xll.Exlibris.WebAPI.GET(E6,E12)</f>
+        <v>Newtonsoft.Json.Linq.JObject:9DC63BDB-6E70-4774-BD22-0F1627A8E8A8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="str" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">_xll.Exlibris.WebAPI.Status(E14)</f>
+        <v>OK(200)</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="str" cm="1">
+        <f t="array" aca="1" ref="E19:F50" ca="1">_xll.Exlibris.JSON.Values(E14,,TRUE)</f>
+        <v>$.login</v>
+      </c>
+      <c r="F19" t="str">
+        <f ca="1"/>
+        <v>mugenfugafuga</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D20" s="11"/>
+      <c r="E20" t="str">
+        <f ca="1"/>
+        <v>$.id</v>
+      </c>
+      <c r="F20">
+        <f ca="1"/>
+        <v>52103142</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D21" s="11"/>
+      <c r="E21" t="str">
+        <f ca="1"/>
+        <v>$.node_id</v>
+      </c>
+      <c r="F21" t="str">
+        <f ca="1"/>
+        <v>MDQ6VXNlcjUyMTAzMTQy</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D22" s="11"/>
+      <c r="E22" t="str">
+        <f ca="1"/>
+        <v>$.avatar_url</v>
+      </c>
+      <c r="F22" t="str">
+        <f ca="1"/>
+        <v>https://avatars.githubusercontent.com/u/52103142?v=4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E23" t="str">
+        <f ca="1"/>
+        <v>$.gravatar_id</v>
+      </c>
+      <c r="F23" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E24" t="str">
+        <f ca="1"/>
+        <v>$.url</v>
+      </c>
+      <c r="F24" t="str">
+        <f ca="1"/>
+        <v>https://api.github.com/users/mugenfugafuga</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E25" t="str">
+        <f ca="1"/>
+        <v>$.html_url</v>
+      </c>
+      <c r="F25" t="str">
+        <f ca="1"/>
+        <v>https://github.com/mugenfugafuga</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E26" t="str">
+        <f ca="1"/>
+        <v>$.followers_url</v>
+      </c>
+      <c r="F26" t="str">
+        <f ca="1"/>
+        <v>https://api.github.com/users/mugenfugafuga/followers</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E27" t="str">
+        <f ca="1"/>
+        <v>$.following_url</v>
+      </c>
+      <c r="F27" t="str">
+        <f ca="1"/>
+        <v>https://api.github.com/users/mugenfugafuga/following{/other_user}</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E28" t="str">
+        <f ca="1"/>
+        <v>$.gists_url</v>
+      </c>
+      <c r="F28" t="str">
+        <f ca="1"/>
+        <v>https://api.github.com/users/mugenfugafuga/gists{/gist_id}</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E29" t="str">
+        <f ca="1"/>
+        <v>$.starred_url</v>
+      </c>
+      <c r="F29" t="str">
+        <f ca="1"/>
+        <v>https://api.github.com/users/mugenfugafuga/starred{/owner}{/repo}</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E30" t="str">
+        <f ca="1"/>
+        <v>$.subscriptions_url</v>
+      </c>
+      <c r="F30" t="str">
+        <f ca="1"/>
+        <v>https://api.github.com/users/mugenfugafuga/subscriptions</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E31" t="str">
+        <f ca="1"/>
+        <v>$.organizations_url</v>
+      </c>
+      <c r="F31" t="str">
+        <f ca="1"/>
+        <v>https://api.github.com/users/mugenfugafuga/orgs</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E32" t="str">
+        <f ca="1"/>
+        <v>$.repos_url</v>
+      </c>
+      <c r="F32" t="str">
+        <f ca="1"/>
+        <v>https://api.github.com/users/mugenfugafuga/repos</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E33" t="str">
+        <f ca="1"/>
+        <v>$.events_url</v>
+      </c>
+      <c r="F33" t="str">
+        <f ca="1"/>
+        <v>https://api.github.com/users/mugenfugafuga/events{/privacy}</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E34" t="str">
+        <f ca="1"/>
+        <v>$.received_events_url</v>
+      </c>
+      <c r="F34" t="str">
+        <f ca="1"/>
+        <v>https://api.github.com/users/mugenfugafuga/received_events</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E35" t="str">
+        <f ca="1"/>
+        <v>$.type</v>
+      </c>
+      <c r="F35" t="str">
+        <f ca="1"/>
+        <v>User</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E36" t="str">
+        <f ca="1"/>
+        <v>$.site_admin</v>
+      </c>
+      <c r="F36" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E37" t="str">
+        <f ca="1"/>
+        <v>$.name</v>
+      </c>
+      <c r="F37" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E38" t="str">
+        <f ca="1"/>
+        <v>$.company</v>
+      </c>
+      <c r="F38" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E39" t="str">
+        <f ca="1"/>
+        <v>$.blog</v>
+      </c>
+      <c r="F39" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E40" t="str">
+        <f ca="1"/>
+        <v>$.location</v>
+      </c>
+      <c r="F40" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E41" t="str">
+        <f ca="1"/>
+        <v>$.email</v>
+      </c>
+      <c r="F41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E42" t="str">
+        <f ca="1"/>
+        <v>$.hireable</v>
+      </c>
+      <c r="F42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E43" t="str">
+        <f ca="1"/>
+        <v>$.bio</v>
+      </c>
+      <c r="F43" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E44" t="str">
+        <f ca="1"/>
+        <v>$.twitter_username</v>
+      </c>
+      <c r="F44" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E45" t="str">
+        <f ca="1"/>
+        <v>$.public_repos</v>
+      </c>
+      <c r="F45">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E46" t="str">
+        <f ca="1"/>
+        <v>$.public_gists</v>
+      </c>
+      <c r="F46">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E47" t="str">
+        <f ca="1"/>
+        <v>$.followers</v>
+      </c>
+      <c r="F47">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E48" t="str">
+        <f ca="1"/>
+        <v>$.following</v>
+      </c>
+      <c r="F48">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E49" t="str">
+        <f ca="1"/>
+        <v>$.created_at</v>
+      </c>
+      <c r="F49">
+        <f ca="1"/>
+        <v>43638.51152777778</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E50" t="str">
+        <f ca="1"/>
+        <v>$.updated_at</v>
+      </c>
+      <c r="F50">
+        <f ca="1"/>
+        <v>45018.362881944442</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/samples/2.webapi-sample-and-test.xlsx
+++ b/samples/2.webapi-sample-and-test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mugenfugafuga\git\exlibris\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAEB2F2-00FE-4101-A347-1FC671029DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBAA94D-D7CE-4AC0-9927-53ACF9F18434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34510" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{84C49BD8-384C-4066-B31D-9BE02E5241E8}"/>
+    <workbookView xWindow="-41388" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{84C49BD8-384C-4066-B31D-9BE02E5241E8}"/>
   </bookViews>
   <sheets>
     <sheet name="top" sheetId="1" r:id="rId1"/>
@@ -853,241 +853,264 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_75fb6336ccab4501a825bb190f03f157">
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
       <tp>
         <v>1</v>
         <stp/>
-        <stp>74174404-817b-4651-aa1a-b2c4330f71c7</stp>
-        <tr r="F23" s="11"/>
+        <stp>f60856eb-95ca-420d-a4e4-303864c7dc95</stp>
+        <tr r="E25" s="11"/>
       </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
       <tp>
-        <v>3</v>
+        <v>1</v>
         <stp/>
-        <stp>5b3380cf-10e0-4ecb-907a-a73b939a8957</stp>
-        <tr r="D10" s="2"/>
-        <tr r="E7" s="2"/>
+        <stp>fa23097f-4d45-41c5-b007-0c922bc31624</stp>
+        <tr r="E17" s="9"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>93567ba9-08a6-4439-8d53-5348ae0590bd</stp>
+        <stp>0cf745b4-92cd-4fac-abe3-67078ac55b95</stp>
         <tr r="E9" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>e4b7b997-b395-4083-aead-dcf94f83dd38</stp>
+        <tr r="E14" s="9"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>32223acd-2347-4989-ac6f-d6af6da77700</stp>
+        <stp>6f6d6c43-944d-458e-8fa8-f03b0bbe96d8</stp>
+        <tr r="E12" s="9"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a727133e-7b57-40cb-8a82-bed832936eb8</stp>
+        <tr r="E14" s="13"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>7e1d157e-a72c-4443-b5bd-79449c433a45</stp>
+        <tr r="E12" s="4"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>4aeb7d72-130c-4e10-8e8a-0551976f9e32</stp>
+        <tr r="E27" s="11"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>28da5389-acd5-43d0-943e-10980034037f</stp>
+        <tr r="E19" s="5"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>006bae31-6fca-4b06-b718-93568587c839</stp>
+        <tr r="E11" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>fd21f773-1482-4c8a-8aa7-48c2829f710c</stp>
+        <tr r="E26" s="8"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c668fe71-2957-4646-b3d3-dc9a597ad0aa</stp>
+        <tr r="E12" s="5"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>73e6838c-cbb7-45d0-9502-084d636e5054</stp>
         <tr r="E16" s="14"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>bfc34238-d8e4-4bd9-bd0c-eb6fb0683a31</stp>
+        <stp>edbeef39-82ca-43bc-9d5b-c5c6f74259c9</stp>
+        <tr r="D20" s="13"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>d275c0a3-5319-4313-bf61-23116e50d28b</stp>
+        <tr r="E14" s="5"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>a3c6f245-5710-45ac-bc88-c8837e574d24</stp>
+        <tr r="F10" s="14"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>7cb3f272-ef43-4ee1-9208-cba939ad285e</stp>
+        <tr r="E11" s="6"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>baefe878-9e80-45d6-9b26-64c57a1bcd25</stp>
+        <tr r="E16" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>4f4d4e03-f817-4426-8b25-efb4917f6e38</stp>
+        <tr r="E16" s="12"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>a2272102-3ecc-4382-bd6c-9313dd0b1080</stp>
+        <tr r="E17" s="8"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>af0cbaef-a832-480a-acbd-cdae0a81e23b</stp>
+        <tr r="E9" s="8"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>409a54f5-3adc-4052-847c-3f619686b3f9</stp>
+        <tr r="E18" s="13"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>5f533a2d-d697-44a6-810e-cc36cfd4a0e8</stp>
+        <tr r="E14" s="12"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>796fc25f-2812-4c09-815c-a8439455e66e</stp>
+        <tr r="E19" s="12"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>76728e27-21a8-459b-9953-29c8d588d751</stp>
+        <tr r="E9" s="4"/>
+        <tr r="E9" s="5"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c539017f-0297-49c8-8ab0-731d43d46b86</stp>
+        <tr r="E15" s="8"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>8b5d0309-957f-4f18-883b-a643df970832</stp>
+        <tr r="E14" s="4"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>24c286ce-7f30-4466-9c3a-c66585cef89f</stp>
+        <tr r="E9" s="6"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>7db0ca49-133e-4578-a51a-f8073791c84a</stp>
+        <tr r="D19" s="14"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>c8853377-3e4b-4955-9c0b-19c23802e50e</stp>
+        <tr r="F9" s="9"/>
+        <tr r="F9" s="12"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>9c68a077-0958-402c-9982-d542473c02e1</stp>
         <tr r="E12" s="13"/>
       </tp>
       <tp>
         <v>1</v>
         <stp/>
-        <stp>ba02dfec-3b3c-457a-b080-2fbf40c5a6b0</stp>
-        <tr r="F10" s="14"/>
+        <stp>be05eacc-0edd-42be-8c6b-341bc1fefe89</stp>
+        <tr r="F23" s="11"/>
+        <tr r="F10" s="13"/>
       </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>ef04c0e0-8619-48e7-b50e-5b50862e91a9</stp>
-        <tr r="E9" s="6"/>
+        <stp>bfc950d4-293b-4ab4-b8ad-fc43ee8a15e3</stp>
+        <tr r="E19" s="4"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>8989082f-8b05-4bdd-8598-8f49a7bd3498</stp>
+        <tr r="E12" s="12"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a49f80bd0fda48e89864abd6731d1ecd">
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>35670503-3290-4337-a122-92f272c2d6ae</stp>
+        <tr r="E29" s="11"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>88193993-2278-4a50-a3c0-7999a3a62fbf</stp>
-        <tr r="E16" s="12"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>6901ea39-176e-4970-9846-2dec2c427e99</stp>
-        <tr r="E29" s="11"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>08520f5b-125c-454c-bf6e-adeeca24a0b4</stp>
-        <tr r="E14" s="13"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>621957ca-c3a3-4ffe-b487-6537d976f833</stp>
-        <tr r="E18" s="13"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>63baaeac-bd51-4fef-9a7f-a8339d760795</stp>
-        <tr r="E19" s="4"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>80f6e078-397d-4974-8a77-6967807fa7bc</stp>
-        <tr r="E11" s="6"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>1b80a27a-def8-4220-a84e-cf433c30b7a5</stp>
-        <tr r="E11" s="3"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>4e5005cb-380e-4fbc-a702-7880f4f1d9aa</stp>
-        <tr r="E14" s="4"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ce62bc0a-5f00-4e1e-89fb-de2f0e6cc5f2</stp>
-        <tr r="E12" s="9"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3c099247-2401-4067-a6dc-95986513a424</stp>
-        <tr r="E16" s="3"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>1b2898a4-86b4-4304-a9bf-b6d7bea81c5f</stp>
-        <tr r="E25" s="11"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>9fad7b03-266a-4090-a8eb-3f2fb78ed4f0</stp>
-        <tr r="D19" s="14"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>a62922d0-9c83-4221-af60-e8c047f7839a</stp>
-        <tr r="E15" s="8"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>8ec1280d-db3b-4254-bb78-14689525bcbd</stp>
-        <tr r="E14" s="12"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>525dabb3-34b3-4054-93da-1922b4aa7eeb</stp>
-        <tr r="F10" s="13"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>72878148-3992-488c-8862-5734f0be986e</stp>
-        <tr r="E17" s="8"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>9ce10f2a-8437-40f7-9b15-cc19253ca7fc</stp>
-        <tr r="E12" s="12"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>bbe51713-2f3a-4768-bc3b-fb5140882c8d</stp>
-        <tr r="E14" s="5"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>932ce0c8-8d86-45db-b7c0-33c912c4af9e</stp>
-        <tr r="F9" s="12"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>9d627738-0fe4-4398-9923-f318237ce4df</stp>
-        <tr r="E12" s="5"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>009d4313-9054-49d3-ae03-41e8ffc632e1</stp>
-        <tr r="E9" s="8"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>fd5b1dea-5dd6-452c-99ba-142d64a42d74</stp>
-        <tr r="E19" s="12"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0d4c392b-9454-4fd1-9b60-373c70e2972d</stp>
-        <tr r="E19" s="5"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>b83bb69a-e49d-469a-b647-cafe25d9c91a</stp>
-        <tr r="E9" s="4"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>0eab6895-fb14-4d71-ae84-8daaa33a56d5</stp>
-        <tr r="D20" s="13"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9f4c9494-a328-4e0b-877d-b71fefd5bd67</stp>
-        <tr r="E14" s="9"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>52b947ae-f2f8-45ea-9047-df73805d131a</stp>
-        <tr r="E17" s="9"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>69e9870f-24a0-4fde-a412-79c5e18e54ed</stp>
-        <tr r="E27" s="11"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>8d4511d2-69e1-457e-902e-e52ec0eb7e27</stp>
-        <tr r="F9" s="9"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ba6d4412-7dbe-40e2-90ff-d43cb1bd4dc0</stp>
-        <tr r="E12" s="4"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>5de02a1e-d4b3-4176-ab61-5c0d74ee4a57</stp>
-        <tr r="E9" s="5"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1fadf2d9-4288-490b-a9be-81cab628117e</stp>
-        <tr r="E26" s="8"/>
+        <stp>d473eb4f-718a-4930-be07-f313be2c87e0</stp>
+        <tr r="D10" s="2"/>
+        <tr r="E7" s="2"/>
       </tp>
     </main>
   </volType>
@@ -1701,7 +1724,7 @@
       </c>
       <c r="F10" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
-        <v>System.String:A85F2899-6AD6-413A-A66E-CD90B7756F4C</v>
+        <v>System.String:D67D0B48-B790-4855-89F5-4D60B2F7035F</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -1713,7 +1736,7 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_xll.Exlibris.WebAPI.URL(E6,E8:F10,TRUE)</f>
-        <v>System.String:C4E5E94A-9072-4ACA-BCD8-DC7F0B0208F3</v>
+        <v>System.String:3C888D20-4807-4C12-8656-313FAB44A25C</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -1722,7 +1745,7 @@
       </c>
       <c r="E14" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">_xll.Exlibris.WebAPI.GET(E12)</f>
-        <v>System.Xml.XmlDocument:905460BF-4372-418D-8D8B-95C9A365AA41</v>
+        <v>System.Xml.XmlDocument:D9180B44-132F-4959-97CE-45ACB24022A3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -1731,7 +1754,7 @@
       </c>
       <c r="E16" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">_xll.Exlibris.XML.Stringfy(E14)</f>
-        <v>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;current&gt;&lt;city id="2643743" name="London"&gt;&lt;coord lon="-0.1257" lat="51.5085"&gt;&lt;/coord&gt;&lt;country&gt;GB&lt;/country&gt;&lt;timezone&gt;3600&lt;/timezone&gt;&lt;sun rise="2023-09-29T05:57:05" set="2023-09-29T17:44:44"&gt;&lt;/sun&gt;&lt;/city&gt;&lt;temperature value="292.36" min="290.62" max="293.35" unit="kelvin"&gt;&lt;/temperature&gt;&lt;feels_like value="291.8" unit="kelvin"&gt;&lt;/feels_like&gt;&lt;humidity value="56" unit="%"&gt;&lt;/humidity&gt;&lt;pressure value="1021" unit="hPa"&gt;&lt;/pressure&gt;&lt;wind&gt;&lt;speed value="5.66" unit="m/s" name="Moderate breeze"&gt;&lt;/speed&gt;&lt;gusts&gt;&lt;/gusts&gt;&lt;direction value="280" code="W" name="West"&gt;&lt;/direction&gt;&lt;/wind&gt;&lt;clouds value="18" name="few clouds"&gt;&lt;/clouds&gt;&lt;visibility value="10000"&gt;&lt;/visibility&gt;&lt;precipitation mode="no"&gt;&lt;/precipitation&gt;&lt;weather number="801" value="few clouds" icon="02d"&gt;&lt;/weather&gt;&lt;lastupdate value="2023-09-29T16:03:48"&gt;&lt;/lastupdate&gt;&lt;/current&gt;</v>
+        <v>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;current&gt;&lt;city id="2643743" name="London"&gt;&lt;coord lon="-0.1257" lat="51.5085"&gt;&lt;/coord&gt;&lt;country&gt;GB&lt;/country&gt;&lt;timezone&gt;0&lt;/timezone&gt;&lt;sun rise="2024-01-28T07:45:37" set="2024-01-28T16:40:47"&gt;&lt;/sun&gt;&lt;/city&gt;&lt;temperature value="281.63" min="279.69" max="282.67" unit="kelvin"&gt;&lt;/temperature&gt;&lt;feels_like value="280.37" unit="kelvin"&gt;&lt;/feels_like&gt;&lt;humidity value="83" unit="%"&gt;&lt;/humidity&gt;&lt;pressure value="1022" unit="hPa"&gt;&lt;/pressure&gt;&lt;wind&gt;&lt;speed value="2.24" unit="m/s" name="Light breeze"&gt;&lt;/speed&gt;&lt;gusts value="4.02"&gt;&lt;/gusts&gt;&lt;direction value="223" code="SW" name="Southwest"&gt;&lt;/direction&gt;&lt;/wind&gt;&lt;clouds value="100" name="overcast clouds"&gt;&lt;/clouds&gt;&lt;visibility value="10000"&gt;&lt;/visibility&gt;&lt;precipitation mode="no"&gt;&lt;/precipitation&gt;&lt;weather number="804" value="overcast clouds" icon="04d"&gt;&lt;/weather&gt;&lt;lastupdate value="2024-01-28T11:20:04"&gt;&lt;/lastupdate&gt;&lt;/current&gt;</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.4">
@@ -1740,7 +1763,7 @@
       </c>
       <c r="E18" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">_xll.Exlibris.JSON.JSONObject(E14)</f>
-        <v>Newtonsoft.Json.Linq.JObject:44915A60-4DE4-4B3B-B50A-E35C295AC0CF</v>
+        <v>Newtonsoft.Json.Linq.JObject:82C43E8C-FCC1-494A-8F2B-A45DE8215C44</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.4">
@@ -1825,7 +1848,7 @@
       </c>
       <c r="E27" t="str">
         <f ca="1"/>
-        <v>3600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.4">
@@ -1835,7 +1858,7 @@
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>45198.247974537036</v>
+        <v>45319.323344907411</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.4">
@@ -1845,7 +1868,7 @@
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>45198.739398148151</v>
+        <v>45319.694988425923</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.4">
@@ -1855,7 +1878,7 @@
       </c>
       <c r="E30" t="str">
         <f ca="1"/>
-        <v>292.36</v>
+        <v>281.63</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.4">
@@ -1865,7 +1888,7 @@
       </c>
       <c r="E31" t="str">
         <f ca="1"/>
-        <v>290.62</v>
+        <v>279.69</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.4">
@@ -1875,7 +1898,7 @@
       </c>
       <c r="E32" t="str">
         <f ca="1"/>
-        <v>293.35</v>
+        <v>282.67</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.4">
@@ -1895,7 +1918,7 @@
       </c>
       <c r="E34" t="str">
         <f ca="1"/>
-        <v>291.8</v>
+        <v>280.37</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.4">
@@ -1915,7 +1938,7 @@
       </c>
       <c r="E36" t="str">
         <f ca="1"/>
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.4">
@@ -1935,7 +1958,7 @@
       </c>
       <c r="E38" t="str">
         <f ca="1"/>
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.4">
@@ -1955,7 +1978,7 @@
       </c>
       <c r="E40" t="str">
         <f ca="1"/>
-        <v>5.66</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.4">
@@ -1975,17 +1998,17 @@
       </c>
       <c r="E42" t="str">
         <f ca="1"/>
-        <v>Moderate breeze</v>
+        <v>Light breeze</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D43" s="16" t="str">
         <f ca="1"/>
-        <v>$.current.wind.gusts</v>
+        <v>$.current.wind.gusts.@value</v>
       </c>
       <c r="E43" t="str">
         <f ca="1"/>
-        <v/>
+        <v>4.02</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.4">
@@ -1995,7 +2018,7 @@
       </c>
       <c r="E44" t="str">
         <f ca="1"/>
-        <v>280</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.4">
@@ -2005,7 +2028,7 @@
       </c>
       <c r="E45" t="str">
         <f ca="1"/>
-        <v>W</v>
+        <v>SW</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.4">
@@ -2015,7 +2038,7 @@
       </c>
       <c r="E46" t="str">
         <f ca="1"/>
-        <v>West</v>
+        <v>Southwest</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.4">
@@ -2025,7 +2048,7 @@
       </c>
       <c r="E47" t="str">
         <f ca="1"/>
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.4">
@@ -2035,7 +2058,7 @@
       </c>
       <c r="E48" t="str">
         <f ca="1"/>
-        <v>few clouds</v>
+        <v>overcast clouds</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.4">
@@ -2065,7 +2088,7 @@
       </c>
       <c r="E51" t="str">
         <f ca="1"/>
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.4">
@@ -2075,7 +2098,7 @@
       </c>
       <c r="E52" t="str">
         <f ca="1"/>
-        <v>few clouds</v>
+        <v>overcast clouds</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.4">
@@ -2085,7 +2108,7 @@
       </c>
       <c r="E53" t="str">
         <f ca="1"/>
-        <v>02d</v>
+        <v>04d</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.4">
@@ -2095,7 +2118,7 @@
       </c>
       <c r="E54">
         <f ca="1"/>
-        <v>45198.669305555559</v>
+        <v>45319.472268518519</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2224,7 @@
       </c>
       <c r="F10" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
-        <v>System.String:6A40F6FE-A0E0-4D56-A60D-F6EFB860E260</v>
+        <v>System.String:9300FB0D-F4BB-407A-8AA7-5D98DF8A2BAA</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -2244,7 +2267,7 @@
       </c>
       <c r="E16" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">_xll.Exlibris.WebAPI.POST(E6,E12:F13,,E9:F10)</f>
-        <v>Newtonsoft.Json.Linq.JObject:7214E1E5-FCC3-4C8A-8726-45D0F48B05E8</v>
+        <v>Newtonsoft.Json.Linq.JObject:F74DC4DC-B86D-43C9-AFC1-5003156917B3</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.4">
@@ -2440,7 +2463,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCC5ED3-C336-4B8D-AA2B-04FC00C3192F}">
-  <dimension ref="B2:I31"/>
+  <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2497,10 +2520,10 @@
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.Exlibris.Utility.Objects.Count(_xll.Exlibris.Utility.TimeAtInterval())</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" t="b">
         <f>E7=G7</f>
@@ -2514,120 +2537,120 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D10" t="str" cm="1">
-        <f t="array" ref="D10:E31">_xll.Exlibris.Utility.Objects.Handles(_xll.Exlibris.Utility.TimeAtInterval())</f>
-        <v>Newtonsoft.Json.Linq.JObject:AB10D51D-C75B-43A6-AEA9-EB5DDBB37662</v>
+        <f t="array" ref="D10:E28">_xll.Exlibris.Utility.Objects.Handles(_xll.Exlibris.Utility.TimeAtInterval())</f>
+        <v>Newtonsoft.Json.Linq.JObject:2D03F854-8D81-4D50-8555-06BD734029BC</v>
       </c>
       <c r="E10" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.2 POST!E9:E9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.3 PUT!E9:E9</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D11" t="str">
-        <v>System.String:FE74CC50-27CF-45E1-88B5-BEE063311324</v>
+        <v>System.String:3C888D20-4807-4C12-8656-313FAB44A25C</v>
       </c>
       <c r="E11" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!F9:F9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E12:E12</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D12" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:7214E1E5-FCC3-4C8A-8726-45D0F48B05E8</v>
+        <v>Newtonsoft.Json.Linq.JObject:0AF6076E-8865-454B-97B5-00402AB7188A</v>
       </c>
       <c r="E12" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.11 POST - form data!E16:E16</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.6 POST with Header!E9:E9</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D13" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:FEF75C3F-9C44-4FA3-8AD8-97422621943D</v>
+        <v>Newtonsoft.Json.Linq.JObject:65A45740-CACA-4E1D-B7B1-26E29369374E</v>
       </c>
       <c r="E13" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.7 Bearer!E12:E12</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!E27:E27</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D14" t="str">
-        <v>System.String:7A9DE38B-E498-41C8-8342-AB2E480BE6B7</v>
+        <v>Newtonsoft.Json.Linq.JObject:C4296C7E-0404-485C-B638-D0F96990FB64</v>
       </c>
       <c r="E14" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.7 Bearer!F9:F9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.3 PUT!E12:E12</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D15" t="str">
-        <v>System.String:A85F2899-6AD6-413A-A66E-CD90B7756F4C</v>
+        <v>System.Net.Http.HttpClient:C5C83A5C-EE4C-47E6-894B-CF1B822364EB</v>
       </c>
       <c r="E15" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!F10:F10</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E12:E12</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D16" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:9DC63BDB-6E70-4774-BD22-0F1627A8E8A8</v>
+        <v>System.String:9300FB0D-F4BB-407A-8AA7-5D98DF8A2BAA</v>
       </c>
       <c r="E16" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E14:E14</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.11 POST - form data!F10:F10</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D17" t="str">
-        <v>System.String:6A40F6FE-A0E0-4D56-A60D-F6EFB860E260</v>
+        <v>Newtonsoft.Json.Linq.JObject:9C3D6D4A-20B5-4B03-9E67-828C77D867D3</v>
       </c>
       <c r="E17" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.11 POST - form data!F10:F10</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.1 GET!E9:E9</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D18" t="str">
-        <v>System.Net.Http.HttpClient:7998C5B2-10D4-4FC0-A408-E4A7F93FEB1A</v>
+        <v>Newtonsoft.Json.Linq.JObject:F74DC4DC-B86D-43C9-AFC1-5003156917B3</v>
       </c>
       <c r="E18" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E12:E12</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.11 POST - form data!E16:E16</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D19" t="str">
-        <v>System.String:3FB11391-40A2-45E9-AAE6-B24D3E65F95C</v>
+        <v>Newtonsoft.Json.Linq.JObject:D4682418-7C6E-4F73-9DBB-AD52809952CA</v>
       </c>
       <c r="E19" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!E25:E25</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!E14:E14</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D20" t="str">
-        <v>System.String:C4E5E94A-9072-4ACA-BCD8-DC7F0B0208F3</v>
+        <v>System.String:BF2FB51A-8261-4A69-A8C8-159879D35BEA</v>
       </c>
       <c r="E20" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E12:E12</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!E25:E25</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D21" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:6E8A2942-3E00-4152-91E5-D7808DE435D2</v>
+        <v>System.String:D67D0B48-B790-4855-89F5-4D60B2F7035F</v>
       </c>
       <c r="E21" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.3 PUT!E9:E9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!F10:F10</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D22" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:DC9D7085-2D57-4CB1-9A1B-BF534C30039B</v>
+        <v>Newtonsoft.Json.Linq.JObject:CA04A0D0-D191-4B79-BAAF-FFD088107EDD</v>
       </c>
       <c r="E22" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.3 PUT!E12:E12</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.2 POST!E12:E12</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D23" t="str">
-        <v>System.String:742EB824-0E08-497C-9FB7-882AD3301027</v>
+        <v>System.String:CF551A34-F873-47CF-B7C9-5DF8476B59CC</v>
       </c>
       <c r="E23" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!F23:F23</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.9 HttpClient!F9:F9</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D24" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:44915A60-4DE4-4B3B-B50A-E35C295AC0CF</v>
+        <v>Newtonsoft.Json.Linq.JObject:82C43E8C-FCC1-494A-8F2B-A45DE8215C44</v>
       </c>
       <c r="E24" t="str">
         <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E18:E18</v>
@@ -2635,58 +2658,34 @@
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D25" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:C8090231-4055-4B21-A04E-6E23D1709524</v>
+        <v>Newtonsoft.Json.Linq.JObject:906CF1AD-B4F2-4CAB-B07B-F00756766DE8</v>
       </c>
       <c r="E25" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.2 POST!E12:E12</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.6 POST with Header!E15:E15</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D26" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:7AE874FF-A72C-4F48-AC0D-B4D04180E10C</v>
+        <v>Newtonsoft.Json.Linq.JObject:DF03BB71-11B8-458E-A21D-45884302A9E3</v>
       </c>
       <c r="E26" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.4 DELETE!E9:E9</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.7 Bearer!E12:E12</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D27" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:EE6FFD6F-8923-40EB-936B-57D4A6732BA3</v>
+        <v>Newtonsoft.Json.Linq.JObject:34405289-0679-417A-ACA5-6B5E8B2218FA</v>
       </c>
       <c r="E27" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.8 URL params!E27:E27</v>
+        <v>[2.webapi-sample-and-test.xlsx]2.4 DELETE!E9:E9</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D28" t="str">
-        <v>System.Xml.XmlDocument:905460BF-4372-418D-8D8B-95C9A365AA41</v>
+        <v>System.Xml.XmlDocument:D9180B44-132F-4959-97CE-45ACB24022A3</v>
       </c>
       <c r="E28" t="str">
         <v>[2.webapi-sample-and-test.xlsx]2.10 xml response!E14:E14</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D29" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:B459A194-A51C-4A51-A216-60366EAAB628</v>
-      </c>
-      <c r="E29" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.1 GET!E9:E9</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D30" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:FFE26974-CA13-49E7-843B-C52AAC22B6E6</v>
-      </c>
-      <c r="E30" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.6 POST with Header!E9:E9</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D31" t="str">
-        <v>Newtonsoft.Json.Linq.JObject:D78C652E-10D5-4BF4-AF63-725EB66EC07D</v>
-      </c>
-      <c r="E31" t="str">
-        <v>[2.webapi-sample-and-test.xlsx]2.6 POST with Header!E15:E15</v>
       </c>
     </row>
   </sheetData>
@@ -2771,7 +2770,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.WebAPI.GET(E6)</f>
-        <v>Newtonsoft.Json.Linq.JObject:B459A194-A51C-4A51-A216-60366EAAB628</v>
+        <v>Newtonsoft.Json.Linq.JObject:9C3D6D4A-20B5-4B03-9E67-828C77D867D3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -2907,7 +2906,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.JSON.JSONObject(E7)</f>
-        <v>Newtonsoft.Json.Linq.JObject:AB10D51D-C75B-43A6-AEA9-EB5DDBB37662</v>
+        <v>Newtonsoft.Json.Linq.JObject:2D03F854-8D81-4D50-8555-06BD734029BC</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -2924,7 +2923,7 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" ref="E12">_xll.Exlibris.WebAPI.POST(E6,E9)</f>
-        <v>Newtonsoft.Json.Linq.JObject:C8090231-4055-4B21-A04E-6E23D1709524</v>
+        <v>Newtonsoft.Json.Linq.JObject:CA04A0D0-D191-4B79-BAAF-FFD088107EDD</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -3068,7 +3067,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.JSON.JSONObject(E7)</f>
-        <v>Newtonsoft.Json.Linq.JObject:6E8A2942-3E00-4152-91E5-D7808DE435D2</v>
+        <v>Newtonsoft.Json.Linq.JObject:2D03F854-8D81-4D50-8555-06BD734029BC</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -3085,7 +3084,7 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" ref="E12">_xll.Exlibris.WebAPI.PUT(E6,E9)</f>
-        <v>Newtonsoft.Json.Linq.JObject:DC9D7085-2D57-4CB1-9A1B-BF534C30039B</v>
+        <v>Newtonsoft.Json.Linq.JObject:C4296C7E-0404-485C-B638-D0F96990FB64</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -3224,7 +3223,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.WebAPI.DELETE(E6)</f>
-        <v>Newtonsoft.Json.Linq.JObject:7AE874FF-A72C-4F48-AC0D-B4D04180E10C</v>
+        <v>Newtonsoft.Json.Linq.JObject:34405289-0679-417A-ACA5-6B5E8B2218FA</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -3325,7 +3324,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" ref="E9">_xll.Exlibris.JSON.JSONObject(E7)</f>
-        <v>Newtonsoft.Json.Linq.JObject:FFE26974-CA13-49E7-843B-C52AAC22B6E6</v>
+        <v>Newtonsoft.Json.Linq.JObject:0AF6076E-8865-454B-97B5-00402AB7188A</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -3361,7 +3360,7 @@
       </c>
       <c r="E15" t="str" cm="1">
         <f t="array" ref="E15">_xll.Exlibris.WebAPI.POST(E6,E9,,E11:F12)</f>
-        <v>Newtonsoft.Json.Linq.JObject:D78C652E-10D5-4BF4-AF63-725EB66EC07D</v>
+        <v>Newtonsoft.Json.Linq.JObject:906CF1AD-B4F2-4CAB-B07B-F00756766DE8</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.4">
@@ -3373,7 +3372,7 @@
         <v>$.bookingid</v>
       </c>
       <c r="F17">
-        <v>1275</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.4">
@@ -3546,7 +3545,7 @@
       </c>
       <c r="F9" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
-        <v>System.String:7A9DE38B-E498-41C8-8342-AB2E480BE6B7</v>
+        <v>System.String:CF551A34-F873-47CF-B7C9-5DF8476B59CC</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -3563,7 +3562,7 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_xll.Exlibris.WebAPI.GET(E6,E9:F9)</f>
-        <v>Newtonsoft.Json.Linq.JObject:FEF75C3F-9C44-4FA3-8AD8-97422621943D</v>
+        <v>Newtonsoft.Json.Linq.JObject:DF03BB71-11B8-458E-A21D-45884302A9E3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -3906,7 +3905,7 @@
       </c>
       <c r="F48">
         <f ca="1"/>
-        <v>45018.362881944442</v>
+        <v>45319.476354166669</v>
       </c>
     </row>
   </sheetData>
@@ -3928,7 +3927,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC357EE-7302-46AF-A87F-0D2E2370165F}">
-  <dimension ref="A2:F55"/>
+  <dimension ref="A2:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4081,7 +4080,7 @@
       </c>
       <c r="F23" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">_xll.Exlibris.Utility.LoadText(E19)</f>
-        <v>System.String:742EB824-0E08-497C-9FB7-882AD3301027</v>
+        <v>System.String:D67D0B48-B790-4855-89F5-4D60B2F7035F</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.4">
@@ -4090,7 +4089,7 @@
       </c>
       <c r="E25" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">_xll.Exlibris.WebAPI.URL(E21,E22:F23,TRUE)</f>
-        <v>System.String:3FB11391-40A2-45E9-AAE6-B24D3E65F95C</v>
+        <v>System.String:BF2FB51A-8261-4A69-A8C8-159879D35BEA</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.4">
@@ -4099,7 +4098,7 @@
       </c>
       <c r="E27" t="str" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">_xll.Exlibris.WebAPI.GET(E25)</f>
-        <v>Newtonsoft.Json.Linq.JObject:EE6FFD6F-8923-40EB-936B-57D4A6732BA3</v>
+        <v>Newtonsoft.Json.Linq.JObject:65A45740-CACA-4E1D-B7B1-26E29369374E</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.4">
@@ -4107,7 +4106,7 @@
         <v>65</v>
       </c>
       <c r="E29" t="str" cm="1">
-        <f t="array" aca="1" ref="E29:F55" ca="1">_xll.Exlibris.JSON.Values(E27)</f>
+        <f t="array" aca="1" ref="E29:F56" ca="1">_xll.Exlibris.JSON.Values(E27)</f>
         <v>$.coord.lon</v>
       </c>
       <c r="F29">
@@ -4132,7 +4131,7 @@
       </c>
       <c r="F31">
         <f ca="1"/>
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.4">
@@ -4152,7 +4151,7 @@
       </c>
       <c r="F33" t="str">
         <f ca="1"/>
-        <v>few clouds</v>
+        <v>overcast clouds</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.4">
@@ -4162,7 +4161,7 @@
       </c>
       <c r="F34" t="str">
         <f ca="1"/>
-        <v>02d</v>
+        <v>04d</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.4">
@@ -4182,7 +4181,7 @@
       </c>
       <c r="F36">
         <f ca="1"/>
-        <v>292.36</v>
+        <v>281.63</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.4">
@@ -4192,7 +4191,7 @@
       </c>
       <c r="F37">
         <f ca="1"/>
-        <v>291.8</v>
+        <v>280.37</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.4">
@@ -4202,7 +4201,7 @@
       </c>
       <c r="F38">
         <f ca="1"/>
-        <v>290.62</v>
+        <v>279.69</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.4">
@@ -4212,7 +4211,7 @@
       </c>
       <c r="F39">
         <f ca="1"/>
-        <v>293.35000000000002</v>
+        <v>282.67</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.4">
@@ -4222,7 +4221,7 @@
       </c>
       <c r="F40">
         <f ca="1"/>
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.4">
@@ -4232,7 +4231,7 @@
       </c>
       <c r="F41">
         <f ca="1"/>
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.4">
@@ -4252,7 +4251,7 @@
       </c>
       <c r="F43">
         <f ca="1"/>
-        <v>5.66</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.4">
@@ -4262,115 +4261,125 @@
       </c>
       <c r="F44">
         <f ca="1"/>
-        <v>280</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E45" t="str">
         <f ca="1"/>
-        <v>$.clouds.all</v>
+        <v>$.wind.gust</v>
       </c>
       <c r="F45">
         <f ca="1"/>
-        <v>18</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E46" t="str">
         <f ca="1"/>
-        <v>$.dt</v>
+        <v>$.clouds.all</v>
       </c>
       <c r="F46">
         <f ca="1"/>
-        <v>1696003428</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E47" t="str">
         <f ca="1"/>
-        <v>$.sys.type</v>
+        <v>$.dt</v>
       </c>
       <c r="F47">
         <f ca="1"/>
-        <v>2</v>
+        <v>1706440804</v>
       </c>
     </row>
     <row r="48" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E48" t="str">
         <f ca="1"/>
-        <v>$.sys.id</v>
+        <v>$.sys.type</v>
       </c>
       <c r="F48">
         <f ca="1"/>
-        <v>268730</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E49" t="str">
         <f ca="1"/>
-        <v>$.sys.country</v>
-      </c>
-      <c r="F49" t="str">
-        <f ca="1"/>
-        <v>GB</v>
+        <v>$.sys.id</v>
+      </c>
+      <c r="F49">
+        <f ca="1"/>
+        <v>2075535</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E50" t="str">
         <f ca="1"/>
-        <v>$.sys.sunrise</v>
-      </c>
-      <c r="F50">
-        <f ca="1"/>
-        <v>1695967025</v>
+        <v>$.sys.country</v>
+      </c>
+      <c r="F50" t="str">
+        <f ca="1"/>
+        <v>GB</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E51" t="str">
         <f ca="1"/>
-        <v>$.sys.sunset</v>
+        <v>$.sys.sunrise</v>
       </c>
       <c r="F51">
         <f ca="1"/>
-        <v>1696009484</v>
+        <v>1706427937</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E52" t="str">
         <f ca="1"/>
-        <v>$.timezone</v>
+        <v>$.sys.sunset</v>
       </c>
       <c r="F52">
         <f ca="1"/>
-        <v>3600</v>
+        <v>1706460047</v>
       </c>
     </row>
     <row r="53" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E53" t="str">
         <f ca="1"/>
-        <v>$.id</v>
+        <v>$.timezone</v>
       </c>
       <c r="F53">
         <f ca="1"/>
-        <v>2643743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E54" t="str">
         <f ca="1"/>
-        <v>$.name</v>
-      </c>
-      <c r="F54" t="str">
-        <f ca="1"/>
-        <v>London</v>
+        <v>$.id</v>
+      </c>
+      <c r="F54">
+        <f ca="1"/>
+        <v>2643743</v>
       </c>
     </row>
     <row r="55" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E55" t="str">
         <f ca="1"/>
+        <v>$.name</v>
+      </c>
+      <c r="F55" t="str">
+        <f ca="1"/>
+        <v>London</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E56" t="str">
+        <f ca="1"/>
         <v>$.cod</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <f ca="1"/>
         <v>200</v>
       </c>
@@ -4470,7 +4479,7 @@
       </c>
       <c r="F9" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">_xll.Exlibris.Utility.LoadText(E7)</f>
-        <v>System.String:FE74CC50-27CF-45E1-88B5-BEE063311324</v>
+        <v>System.String:CF551A34-F873-47CF-B7C9-5DF8476B59CC</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -4487,7 +4496,7 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_xll.Exlibris.WebAPI.Client(E9:F9)</f>
-        <v>System.Net.Http.HttpClient:7998C5B2-10D4-4FC0-A408-E4A7F93FEB1A</v>
+        <v>System.Net.Http.HttpClient:C5C83A5C-EE4C-47E6-894B-CF1B822364EB</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -4499,7 +4508,7 @@
       </c>
       <c r="E14" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">_xll.Exlibris.WebAPI.GET(E6,E12)</f>
-        <v>Newtonsoft.Json.Linq.JObject:9DC63BDB-6E70-4774-BD22-0F1627A8E8A8</v>
+        <v>Newtonsoft.Json.Linq.JObject:D4682418-7C6E-4F73-9DBB-AD52809952CA</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -4842,7 +4851,7 @@
       </c>
       <c r="F50">
         <f ca="1"/>
-        <v>45018.362881944442</v>
+        <v>45319.476354166669</v>
       </c>
     </row>
   </sheetData>
